--- a/Routes.xlsx
+++ b/Routes.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4529" uniqueCount="1036">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4545" uniqueCount="1050">
   <si>
     <t>NSH</t>
   </si>
@@ -3124,13 +3124,55 @@
   </si>
   <si>
     <t>-302 +308 -310 -312 -316 -318 +324 +322 +326 +332</t>
+  </si>
+  <si>
+    <t>crsrd_id_1</t>
+  </si>
+  <si>
+    <t>crsrd_delay_open_1</t>
+  </si>
+  <si>
+    <t>crsrd_start_notif_1</t>
+  </si>
+  <si>
+    <t>crsrd_delay_start_notif_1</t>
+  </si>
+  <si>
+    <t>crsrd_notif_point_1</t>
+  </si>
+  <si>
+    <t>crsrd_before_route_points_1</t>
+  </si>
+  <si>
+    <t>crsrd_id_2</t>
+  </si>
+  <si>
+    <t>crsrd_delay_open_2</t>
+  </si>
+  <si>
+    <t>crsrd_delay_start_notif_2</t>
+  </si>
+  <si>
+    <t>crsrd_start_notif_2</t>
+  </si>
+  <si>
+    <t>crsrd_notif_point_2</t>
+  </si>
+  <si>
+    <t>crsrd_before_route_points_2</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>26</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3146,6 +3188,13 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3155,7 +3204,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -3211,11 +3260,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -3228,7 +3312,19 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -3530,35 +3626,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AD454"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E143" sqref="E143"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="53.7109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="23" style="3" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" style="3" customWidth="1"/>
-    <col min="13" max="13" width="8.5703125" style="3" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="3" customWidth="1"/>
-    <col min="15" max="15" width="20.28515625" style="3" customWidth="1"/>
-    <col min="16" max="17" width="16.28515625" style="3" customWidth="1"/>
-    <col min="18" max="18" width="25.5703125" style="3" customWidth="1"/>
-    <col min="19" max="19" width="22.42578125" style="3" customWidth="1"/>
-    <col min="20" max="20" width="26.42578125" style="3" customWidth="1"/>
-    <col min="21" max="30" width="9.140625" style="3"/>
+    <col min="1" max="1" width="12.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="2" style="3" customWidth="1"/>
+    <col min="4" max="4" width="2.7109375" style="3" customWidth="1"/>
+    <col min="5" max="6" width="2.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="3.28515625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="3.5703125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="3.140625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="3.42578125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="3.5703125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="3.42578125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="3.28515625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="4" style="3" customWidth="1"/>
+    <col min="15" max="15" width="4.28515625" style="3" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="3" customWidth="1"/>
+    <col min="17" max="17" width="9.42578125" style="8" customWidth="1"/>
+    <col min="18" max="18" width="11.5703125" style="3" customWidth="1"/>
+    <col min="19" max="19" width="14.140625" style="3" customWidth="1"/>
+    <col min="20" max="20" width="9.7109375" style="3" customWidth="1"/>
+    <col min="21" max="21" width="10.85546875" style="10" customWidth="1"/>
+    <col min="22" max="22" width="18.28515625" style="15" customWidth="1"/>
+    <col min="23" max="27" width="9.140625" style="10"/>
+    <col min="28" max="28" width="9.140625" style="16"/>
+    <col min="29" max="30" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75">
+    <row r="1" spans="1:28" ht="15.75">
       <c r="A1" s="2" t="s">
         <v>915</v>
       </c>
@@ -3604,15 +3704,47 @@
       <c r="O1" s="2" t="s">
         <v>912</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="13" t="s">
         <v>913</v>
       </c>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="10"/>
-    </row>
-    <row r="2" spans="1:20" ht="15.75">
+      <c r="Q1" s="11" t="s">
+        <v>1036</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>1037</v>
+      </c>
+      <c r="S1" s="11" t="s">
+        <v>1039</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>1038</v>
+      </c>
+      <c r="U1" s="12" t="s">
+        <v>1040</v>
+      </c>
+      <c r="V1" s="12" t="s">
+        <v>1041</v>
+      </c>
+      <c r="W1" s="14" t="s">
+        <v>1042</v>
+      </c>
+      <c r="X1" s="11" t="s">
+        <v>1043</v>
+      </c>
+      <c r="Y1" s="11" t="s">
+        <v>1044</v>
+      </c>
+      <c r="Z1" s="12" t="s">
+        <v>1045</v>
+      </c>
+      <c r="AA1" s="12" t="s">
+        <v>1046</v>
+      </c>
+      <c r="AB1" s="12" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" ht="15.75">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -3655,10 +3787,20 @@
       <c r="P2" s="3" t="s">
         <v>895</v>
       </c>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-    </row>
-    <row r="3" spans="1:20" ht="15.75">
+      <c r="Q2" s="8" t="s">
+        <v>948</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>1048</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>1049</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="15.75">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -3702,7 +3844,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15.75">
+    <row r="4" spans="1:28" ht="15.75">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -3746,7 +3888,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="15.75">
+    <row r="5" spans="1:28" ht="15.75">
       <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
@@ -3790,7 +3932,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="15.75">
+    <row r="6" spans="1:28" ht="15.75">
       <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
@@ -3834,7 +3976,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.75">
+    <row r="7" spans="1:28" ht="15.75">
       <c r="A7" s="3" t="s">
         <v>25</v>
       </c>
@@ -3878,7 +4020,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15.75">
+    <row r="8" spans="1:28" ht="15.75">
       <c r="A8" s="3" t="s">
         <v>28</v>
       </c>
@@ -3922,7 +4064,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15.75">
+    <row r="9" spans="1:28" ht="15.75">
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
@@ -3966,7 +4108,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15.75">
+    <row r="10" spans="1:28" ht="15.75">
       <c r="A10" s="3" t="s">
         <v>36</v>
       </c>
@@ -4010,7 +4152,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15.75">
+    <row r="11" spans="1:28" ht="15.75">
       <c r="A11" s="3" t="s">
         <v>39</v>
       </c>
@@ -4054,7 +4196,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15.75">
+    <row r="12" spans="1:28" ht="15.75">
       <c r="A12" s="3" t="s">
         <v>40</v>
       </c>
@@ -4098,7 +4240,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15.75">
+    <row r="13" spans="1:28" ht="15.75">
       <c r="A13" s="3" t="s">
         <v>45</v>
       </c>
@@ -4142,7 +4284,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15.75">
+    <row r="14" spans="1:28" ht="15.75">
       <c r="A14" s="3" t="s">
         <v>48</v>
       </c>
@@ -4184,7 +4326,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15.75">
+    <row r="15" spans="1:28" ht="15.75">
       <c r="A15" s="3" t="s">
         <v>52</v>
       </c>
@@ -4226,7 +4368,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15.75">
+    <row r="16" spans="1:28" ht="15.75">
       <c r="A16" s="3" t="s">
         <v>53</v>
       </c>
@@ -10358,7 +10500,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="157" spans="1:16" ht="15.75">
+    <row r="157" spans="1:16" ht="30.75">
       <c r="A157" s="5" t="s">
         <v>298</v>
       </c>

--- a/Routes.xlsx
+++ b/Routes.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4545" uniqueCount="1050">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4589" uniqueCount="1050">
   <si>
     <t>NSH</t>
   </si>
@@ -3627,7 +3627,7 @@
   <dimension ref="A1:AD454"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3843,6 +3843,18 @@
       <c r="P3" s="3" t="s">
         <v>895</v>
       </c>
+      <c r="Q3" s="8" t="s">
+        <v>948</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>1048</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>1049</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>855</v>
+      </c>
     </row>
     <row r="4" spans="1:28" ht="15.75">
       <c r="A4" s="3" t="s">
@@ -3887,6 +3899,18 @@
       <c r="P4" s="3" t="s">
         <v>894</v>
       </c>
+      <c r="Q4" s="8" t="s">
+        <v>948</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>1048</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>1049</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>855</v>
+      </c>
     </row>
     <row r="5" spans="1:28" ht="15.75">
       <c r="A5" s="3" t="s">
@@ -3931,6 +3955,18 @@
       <c r="P5" s="3" t="s">
         <v>894</v>
       </c>
+      <c r="Q5" s="8" t="s">
+        <v>948</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>1048</v>
+      </c>
+      <c r="S5" s="6" t="s">
+        <v>1049</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>855</v>
+      </c>
     </row>
     <row r="6" spans="1:28" ht="15.75">
       <c r="A6" s="3" t="s">
@@ -3975,6 +4011,18 @@
       <c r="P6" s="3" t="s">
         <v>896</v>
       </c>
+      <c r="Q6" s="8" t="s">
+        <v>948</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>1048</v>
+      </c>
+      <c r="S6" s="6" t="s">
+        <v>1049</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>855</v>
+      </c>
     </row>
     <row r="7" spans="1:28" ht="15.75">
       <c r="A7" s="3" t="s">
@@ -4019,6 +4067,18 @@
       <c r="P7" s="3" t="s">
         <v>896</v>
       </c>
+      <c r="Q7" s="8" t="s">
+        <v>948</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>1048</v>
+      </c>
+      <c r="S7" s="6" t="s">
+        <v>1049</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>855</v>
+      </c>
     </row>
     <row r="8" spans="1:28" ht="15.75">
       <c r="A8" s="3" t="s">
@@ -4063,6 +4123,18 @@
       <c r="P8" s="3" t="s">
         <v>895</v>
       </c>
+      <c r="Q8" s="8" t="s">
+        <v>948</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>1048</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>1049</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>855</v>
+      </c>
     </row>
     <row r="9" spans="1:28" ht="15.75">
       <c r="A9" s="3" t="s">
@@ -4107,6 +4179,18 @@
       <c r="P9" s="3" t="s">
         <v>896</v>
       </c>
+      <c r="Q9" s="8" t="s">
+        <v>948</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>1048</v>
+      </c>
+      <c r="S9" s="6" t="s">
+        <v>1049</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>855</v>
+      </c>
     </row>
     <row r="10" spans="1:28" ht="15.75">
       <c r="A10" s="3" t="s">
@@ -4151,6 +4235,18 @@
       <c r="P10" s="3" t="s">
         <v>896</v>
       </c>
+      <c r="Q10" s="8" t="s">
+        <v>948</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>1048</v>
+      </c>
+      <c r="S10" s="6" t="s">
+        <v>1049</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>855</v>
+      </c>
     </row>
     <row r="11" spans="1:28" ht="15.75">
       <c r="A11" s="3" t="s">
@@ -4195,6 +4291,18 @@
       <c r="P11" s="3" t="s">
         <v>896</v>
       </c>
+      <c r="Q11" s="8" t="s">
+        <v>948</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>1048</v>
+      </c>
+      <c r="S11" s="6" t="s">
+        <v>1049</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>855</v>
+      </c>
     </row>
     <row r="12" spans="1:28" ht="15.75">
       <c r="A12" s="3" t="s">
@@ -4239,6 +4347,18 @@
       <c r="P12" s="3" t="s">
         <v>896</v>
       </c>
+      <c r="Q12" s="8" t="s">
+        <v>948</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>1048</v>
+      </c>
+      <c r="S12" s="6" t="s">
+        <v>1049</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>855</v>
+      </c>
     </row>
     <row r="13" spans="1:28" ht="15.75">
       <c r="A13" s="3" t="s">
@@ -4282,6 +4402,18 @@
       </c>
       <c r="P13" s="3" t="s">
         <v>896</v>
+      </c>
+      <c r="Q13" s="8" t="s">
+        <v>948</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>1048</v>
+      </c>
+      <c r="S13" s="6" t="s">
+        <v>1049</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>855</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75">

--- a/Routes.xlsx
+++ b/Routes.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4589" uniqueCount="1050">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5430" uniqueCount="1119">
   <si>
     <t>NSH</t>
   </si>
@@ -3166,6 +3166,213 @@
   </si>
   <si>
     <t>26</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>115SP</t>
+  </si>
+  <si>
+    <t>113_117SP</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>111SP</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>107_304P</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>+201</t>
+  </si>
+  <si>
+    <t>crsrd_id_3</t>
+  </si>
+  <si>
+    <t>crsrd_delay_open_3</t>
+  </si>
+  <si>
+    <t>crsrd_delay_start_notif_3</t>
+  </si>
+  <si>
+    <t>crsrd_start_notif_3</t>
+  </si>
+  <si>
+    <t>crsrd_notif_point_3</t>
+  </si>
+  <si>
+    <t>crsrd_before_route_points_3</t>
+  </si>
+  <si>
+    <t>crsrd_id_4</t>
+  </si>
+  <si>
+    <t>crsrd_delay_open_4</t>
+  </si>
+  <si>
+    <t>crsrd_delay_start_notif_4</t>
+  </si>
+  <si>
+    <t>crsrd_start_notif_4</t>
+  </si>
+  <si>
+    <t>crsrd_notif_point_4</t>
+  </si>
+  <si>
+    <t>crsrd_before_route_points_4</t>
+  </si>
+  <si>
+    <t>IIVP</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>-201</t>
+  </si>
+  <si>
+    <t>102_104SP</t>
+  </si>
+  <si>
+    <t>112SP</t>
+  </si>
+  <si>
+    <t>+315</t>
+  </si>
+  <si>
+    <t>-315</t>
+  </si>
+  <si>
+    <t>315_319SP</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>312_320SP</t>
+  </si>
+  <si>
+    <t>318SP</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>2AVP</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>215SP</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>48</t>
   </si>
 </sst>
 </file>
@@ -3624,15 +3831,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD454"/>
+  <dimension ref="A1:AN454"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+      <selection activeCell="X28" sqref="X28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" style="3" customWidth="1"/>
     <col min="2" max="2" width="8.28515625" style="3" customWidth="1"/>
     <col min="3" max="3" width="2" style="3" customWidth="1"/>
     <col min="4" max="4" width="2.7109375" style="3" customWidth="1"/>
@@ -3650,15 +3857,21 @@
     <col min="17" max="17" width="9.42578125" style="8" customWidth="1"/>
     <col min="18" max="18" width="11.5703125" style="3" customWidth="1"/>
     <col min="19" max="19" width="14.140625" style="3" customWidth="1"/>
-    <col min="20" max="20" width="9.7109375" style="3" customWidth="1"/>
-    <col min="21" max="21" width="10.85546875" style="10" customWidth="1"/>
-    <col min="22" max="22" width="18.28515625" style="15" customWidth="1"/>
-    <col min="23" max="27" width="9.140625" style="10"/>
+    <col min="20" max="20" width="12.140625" style="3" customWidth="1"/>
+    <col min="21" max="21" width="2.42578125" style="10" customWidth="1"/>
+    <col min="22" max="22" width="10.140625" style="15" customWidth="1"/>
+    <col min="23" max="26" width="9.140625" style="10"/>
+    <col min="27" max="27" width="1.7109375" style="10" customWidth="1"/>
     <col min="28" max="28" width="9.140625" style="16"/>
-    <col min="29" max="30" width="9.140625" style="3"/>
+    <col min="29" max="32" width="9.140625" style="3"/>
+    <col min="33" max="33" width="2" style="3" customWidth="1"/>
+    <col min="34" max="34" width="9.140625" style="16"/>
+    <col min="35" max="38" width="9.140625" style="3"/>
+    <col min="39" max="39" width="3" style="3" customWidth="1"/>
+    <col min="40" max="40" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15.75">
+    <row r="1" spans="1:40" ht="15.75">
       <c r="A1" s="2" t="s">
         <v>915</v>
       </c>
@@ -3743,8 +3956,44 @@
       <c r="AB1" s="12" t="s">
         <v>1047</v>
       </c>
-    </row>
-    <row r="2" spans="1:28" ht="15.75">
+      <c r="AC1" s="14" t="s">
+        <v>1082</v>
+      </c>
+      <c r="AD1" s="11" t="s">
+        <v>1083</v>
+      </c>
+      <c r="AE1" s="11" t="s">
+        <v>1084</v>
+      </c>
+      <c r="AF1" s="12" t="s">
+        <v>1085</v>
+      </c>
+      <c r="AG1" s="12" t="s">
+        <v>1086</v>
+      </c>
+      <c r="AH1" s="12" t="s">
+        <v>1087</v>
+      </c>
+      <c r="AI1" s="14" t="s">
+        <v>1088</v>
+      </c>
+      <c r="AJ1" s="11" t="s">
+        <v>1089</v>
+      </c>
+      <c r="AK1" s="11" t="s">
+        <v>1090</v>
+      </c>
+      <c r="AL1" s="12" t="s">
+        <v>1091</v>
+      </c>
+      <c r="AM1" s="12" t="s">
+        <v>1092</v>
+      </c>
+      <c r="AN1" s="12" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" ht="15.75">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -3799,8 +4048,32 @@
       <c r="T2" s="3" t="s">
         <v>855</v>
       </c>
-    </row>
-    <row r="3" spans="1:28" ht="15.75">
+      <c r="W2" s="10" t="s">
+        <v>949</v>
+      </c>
+      <c r="X2" s="10" t="s">
+        <v>1074</v>
+      </c>
+      <c r="Y2" s="10" t="s">
+        <v>1064</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>855</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>1054</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="AE2" s="3">
+        <v>63</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" ht="15.75">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -3855,8 +4128,32 @@
       <c r="T3" s="3" t="s">
         <v>855</v>
       </c>
-    </row>
-    <row r="4" spans="1:28" ht="15.75">
+      <c r="W3" s="10" t="s">
+        <v>949</v>
+      </c>
+      <c r="X3" s="10" t="s">
+        <v>1074</v>
+      </c>
+      <c r="Y3" s="10" t="s">
+        <v>1064</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>855</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>1054</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="AE3" s="3">
+        <v>63</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" ht="15.75">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -3911,8 +4208,32 @@
       <c r="T4" s="3" t="s">
         <v>855</v>
       </c>
-    </row>
-    <row r="5" spans="1:28" ht="15.75">
+      <c r="W4" s="10" t="s">
+        <v>949</v>
+      </c>
+      <c r="X4" s="10" t="s">
+        <v>1074</v>
+      </c>
+      <c r="Y4" s="10" t="s">
+        <v>1064</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>855</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>1054</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="AE4" s="3">
+        <v>63</v>
+      </c>
+      <c r="AF4" s="3" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40" ht="15.75">
       <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
@@ -3967,8 +4288,32 @@
       <c r="T5" s="3" t="s">
         <v>855</v>
       </c>
-    </row>
-    <row r="6" spans="1:28" ht="15.75">
+      <c r="W5" s="10" t="s">
+        <v>949</v>
+      </c>
+      <c r="X5" s="10" t="s">
+        <v>1074</v>
+      </c>
+      <c r="Y5" s="10" t="s">
+        <v>1064</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>855</v>
+      </c>
+      <c r="AC5" s="3" t="s">
+        <v>1054</v>
+      </c>
+      <c r="AD5" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="AE5" s="3">
+        <v>63</v>
+      </c>
+      <c r="AF5" s="3" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" ht="15.75">
       <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
@@ -4023,8 +4368,32 @@
       <c r="T6" s="3" t="s">
         <v>855</v>
       </c>
-    </row>
-    <row r="7" spans="1:28" ht="15.75">
+      <c r="W6" s="10" t="s">
+        <v>949</v>
+      </c>
+      <c r="X6" s="10" t="s">
+        <v>1074</v>
+      </c>
+      <c r="Y6" s="10" t="s">
+        <v>1064</v>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v>855</v>
+      </c>
+      <c r="AC6" s="3" t="s">
+        <v>1054</v>
+      </c>
+      <c r="AD6" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="AE6" s="3">
+        <v>63</v>
+      </c>
+      <c r="AF6" s="3" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" ht="15.75">
       <c r="A7" s="3" t="s">
         <v>25</v>
       </c>
@@ -4079,8 +4448,32 @@
       <c r="T7" s="3" t="s">
         <v>855</v>
       </c>
-    </row>
-    <row r="8" spans="1:28" ht="15.75">
+      <c r="W7" s="10" t="s">
+        <v>949</v>
+      </c>
+      <c r="X7" s="10" t="s">
+        <v>1074</v>
+      </c>
+      <c r="Y7" s="10" t="s">
+        <v>1064</v>
+      </c>
+      <c r="Z7" s="3" t="s">
+        <v>855</v>
+      </c>
+      <c r="AC7" s="3" t="s">
+        <v>1054</v>
+      </c>
+      <c r="AD7" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="AE7" s="3">
+        <v>63</v>
+      </c>
+      <c r="AF7" s="3" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" ht="15.75">
       <c r="A8" s="3" t="s">
         <v>28</v>
       </c>
@@ -4135,8 +4528,32 @@
       <c r="T8" s="3" t="s">
         <v>855</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" ht="15.75">
+      <c r="W8" s="10" t="s">
+        <v>949</v>
+      </c>
+      <c r="X8" s="10" t="s">
+        <v>1074</v>
+      </c>
+      <c r="Y8" s="10" t="s">
+        <v>1064</v>
+      </c>
+      <c r="Z8" s="3" t="s">
+        <v>855</v>
+      </c>
+      <c r="AC8" s="3" t="s">
+        <v>1054</v>
+      </c>
+      <c r="AD8" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="AE8" s="3">
+        <v>63</v>
+      </c>
+      <c r="AF8" s="3" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" ht="15.75">
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
@@ -4191,8 +4608,32 @@
       <c r="T9" s="3" t="s">
         <v>855</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" ht="15.75">
+      <c r="W9" s="10" t="s">
+        <v>949</v>
+      </c>
+      <c r="X9" s="10" t="s">
+        <v>1074</v>
+      </c>
+      <c r="Y9" s="10" t="s">
+        <v>1064</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>855</v>
+      </c>
+      <c r="AC9" s="3" t="s">
+        <v>1054</v>
+      </c>
+      <c r="AD9" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="AE9" s="3">
+        <v>63</v>
+      </c>
+      <c r="AF9" s="3" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" ht="15.75">
       <c r="A10" s="3" t="s">
         <v>36</v>
       </c>
@@ -4247,8 +4688,32 @@
       <c r="T10" s="3" t="s">
         <v>855</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" ht="15.75">
+      <c r="W10" s="10" t="s">
+        <v>949</v>
+      </c>
+      <c r="X10" s="10" t="s">
+        <v>1074</v>
+      </c>
+      <c r="Y10" s="10" t="s">
+        <v>1064</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>855</v>
+      </c>
+      <c r="AC10" s="3" t="s">
+        <v>1054</v>
+      </c>
+      <c r="AD10" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="AE10" s="3">
+        <v>63</v>
+      </c>
+      <c r="AF10" s="3" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40" ht="15.75">
       <c r="A11" s="3" t="s">
         <v>39</v>
       </c>
@@ -4303,8 +4768,32 @@
       <c r="T11" s="3" t="s">
         <v>855</v>
       </c>
-    </row>
-    <row r="12" spans="1:28" ht="15.75">
+      <c r="W11" s="10" t="s">
+        <v>949</v>
+      </c>
+      <c r="X11" s="10" t="s">
+        <v>1074</v>
+      </c>
+      <c r="Y11" s="10" t="s">
+        <v>1064</v>
+      </c>
+      <c r="Z11" s="3" t="s">
+        <v>855</v>
+      </c>
+      <c r="AC11" s="3" t="s">
+        <v>1054</v>
+      </c>
+      <c r="AD11" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="AE11" s="3">
+        <v>63</v>
+      </c>
+      <c r="AF11" s="3" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40" ht="15.75">
       <c r="A12" s="3" t="s">
         <v>40</v>
       </c>
@@ -4359,8 +4848,32 @@
       <c r="T12" s="3" t="s">
         <v>855</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" ht="15.75">
+      <c r="W12" s="10" t="s">
+        <v>949</v>
+      </c>
+      <c r="X12" s="10" t="s">
+        <v>1074</v>
+      </c>
+      <c r="Y12" s="10" t="s">
+        <v>1064</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>855</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>1054</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="AE12" s="3">
+        <v>63</v>
+      </c>
+      <c r="AF12" s="3" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40" ht="15.75">
       <c r="A13" s="3" t="s">
         <v>45</v>
       </c>
@@ -4415,8 +4928,32 @@
       <c r="T13" s="3" t="s">
         <v>855</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" ht="15.75">
+      <c r="W13" s="10" t="s">
+        <v>949</v>
+      </c>
+      <c r="X13" s="10" t="s">
+        <v>1074</v>
+      </c>
+      <c r="Y13" s="10" t="s">
+        <v>1064</v>
+      </c>
+      <c r="Z13" s="3" t="s">
+        <v>855</v>
+      </c>
+      <c r="AC13" s="3" t="s">
+        <v>1054</v>
+      </c>
+      <c r="AD13" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>63</v>
+      </c>
+      <c r="AF13" s="3" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40" ht="15.75">
       <c r="A14" s="3" t="s">
         <v>48</v>
       </c>
@@ -4457,8 +4994,51 @@
       <c r="P14" s="3" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" ht="15.75">
+      <c r="Q14" s="8" t="s">
+        <v>948</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>1051</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>954</v>
+      </c>
+      <c r="W14" s="10" t="s">
+        <v>949</v>
+      </c>
+      <c r="X14" s="10" t="s">
+        <v>1095</v>
+      </c>
+      <c r="Y14" s="10" t="s">
+        <v>1061</v>
+      </c>
+      <c r="Z14" s="10" t="s">
+        <v>1094</v>
+      </c>
+      <c r="AB14" s="16" t="s">
+        <v>1081</v>
+      </c>
+      <c r="AC14" s="10" t="s">
+        <v>949</v>
+      </c>
+      <c r="AD14" s="10" t="s">
+        <v>1095</v>
+      </c>
+      <c r="AE14" s="10" t="s">
+        <v>1070</v>
+      </c>
+      <c r="AF14" s="10" t="s">
+        <v>875</v>
+      </c>
+      <c r="AG14" s="10"/>
+      <c r="AH14" s="16" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40" ht="15.75">
       <c r="A15" s="3" t="s">
         <v>52</v>
       </c>
@@ -4499,8 +5079,32 @@
       <c r="P15" s="3" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" ht="15.75">
+      <c r="Q15" s="8" t="s">
+        <v>948</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>948</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>1052</v>
+      </c>
+      <c r="W15" s="10" t="s">
+        <v>949</v>
+      </c>
+      <c r="X15" s="10" t="s">
+        <v>1095</v>
+      </c>
+      <c r="Y15" s="10" t="s">
+        <v>1068</v>
+      </c>
+      <c r="Z15" s="10" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40" ht="15.75">
       <c r="A16" s="3" t="s">
         <v>53</v>
       </c>
@@ -4541,8 +5145,32 @@
       <c r="P16" s="3" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" ht="15.75">
+      <c r="Q16" s="8" t="s">
+        <v>948</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>1054</v>
+      </c>
+      <c r="T16" s="3" t="s">
+        <v>1053</v>
+      </c>
+      <c r="W16" s="10" t="s">
+        <v>949</v>
+      </c>
+      <c r="X16" s="10" t="s">
+        <v>1080</v>
+      </c>
+      <c r="Y16" s="10" t="s">
+        <v>1058</v>
+      </c>
+      <c r="Z16" s="10" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="17" spans="1:38" ht="15.75">
       <c r="A17" s="3" t="s">
         <v>54</v>
       </c>
@@ -4586,8 +5214,32 @@
       <c r="P17" s="3" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" ht="15.75">
+      <c r="Q17" s="8" t="s">
+        <v>948</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>1056</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>1055</v>
+      </c>
+      <c r="W17" s="10" t="s">
+        <v>949</v>
+      </c>
+      <c r="X17" s="10" t="s">
+        <v>1079</v>
+      </c>
+      <c r="Y17" s="10" t="s">
+        <v>1058</v>
+      </c>
+      <c r="Z17" s="10" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="18" spans="1:38" ht="15.75">
       <c r="A18" s="3" t="s">
         <v>62</v>
       </c>
@@ -4630,8 +5282,47 @@
       <c r="P18" s="3" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" ht="15.75">
+      <c r="Q18" s="8" t="s">
+        <v>948</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>1058</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="W18" s="8" t="s">
+        <v>949</v>
+      </c>
+      <c r="X18" s="3" t="s">
+        <v>1048</v>
+      </c>
+      <c r="Y18" s="3" t="s">
+        <v>1064</v>
+      </c>
+      <c r="Z18" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="AB18" s="15"/>
+      <c r="AC18" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD18" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="AE18" s="3" t="s">
+        <v>1108</v>
+      </c>
+      <c r="AF18" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="AG18" s="10"/>
+      <c r="AH18" s="15"/>
+    </row>
+    <row r="19" spans="1:38" ht="15.75">
       <c r="A19" s="3" t="s">
         <v>63</v>
       </c>
@@ -4674,8 +5365,46 @@
       <c r="P19" s="3" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" ht="15.75">
+      <c r="Q19" s="8" t="s">
+        <v>948</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>1058</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="W19" s="8" t="s">
+        <v>949</v>
+      </c>
+      <c r="X19" s="3" t="s">
+        <v>1048</v>
+      </c>
+      <c r="Y19" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="Z19" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="AB19" s="15"/>
+      <c r="AC19" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD19" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="AE19" s="3" t="s">
+        <v>1072</v>
+      </c>
+      <c r="AF19" s="3" t="s">
+        <v>767</v>
+      </c>
+      <c r="AG19" s="10"/>
+    </row>
+    <row r="20" spans="1:38" ht="15.75">
       <c r="A20" s="3" t="s">
         <v>64</v>
       </c>
@@ -4718,8 +5447,63 @@
       <c r="P20" s="3" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" ht="15.75">
+      <c r="Q20" s="8" t="s">
+        <v>948</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>1058</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="W20" s="8" t="s">
+        <v>949</v>
+      </c>
+      <c r="X20" s="3" t="s">
+        <v>1075</v>
+      </c>
+      <c r="Y20" s="3" t="s">
+        <v>1056</v>
+      </c>
+      <c r="Z20" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="AB20" s="15" t="s">
+        <v>1099</v>
+      </c>
+      <c r="AC20" s="8" t="s">
+        <v>949</v>
+      </c>
+      <c r="AD20" s="3" t="s">
+        <v>1075</v>
+      </c>
+      <c r="AE20" s="3" t="s">
+        <v>949</v>
+      </c>
+      <c r="AF20" s="3" t="s">
+        <v>1101</v>
+      </c>
+      <c r="AG20" s="10"/>
+      <c r="AH20" s="15" t="s">
+        <v>1100</v>
+      </c>
+      <c r="AI20" s="3">
+        <v>3</v>
+      </c>
+      <c r="AJ20" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="AK20" s="3" t="s">
+        <v>1107</v>
+      </c>
+      <c r="AL20" s="3" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="21" spans="1:38" ht="15.75">
       <c r="A21" s="3" t="s">
         <v>65</v>
       </c>
@@ -4762,8 +5546,46 @@
       <c r="P21" s="3" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" ht="15.75">
+      <c r="Q21" s="8" t="s">
+        <v>948</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>1058</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="W21" s="8" t="s">
+        <v>949</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>1102</v>
+      </c>
+      <c r="Y21" s="3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="Z21" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="AB21" s="15"/>
+      <c r="AC21" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD21" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="AE21" s="10" t="s">
+        <v>1062</v>
+      </c>
+      <c r="AF21" s="10" t="s">
+        <v>1109</v>
+      </c>
+      <c r="AG21" s="10"/>
+    </row>
+    <row r="22" spans="1:38" ht="15.75">
       <c r="A22" s="3" t="s">
         <v>66</v>
       </c>
@@ -4806,8 +5628,46 @@
       <c r="P22" s="3" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" ht="15.75">
+      <c r="Q22" s="8" t="s">
+        <v>948</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>1058</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="W22" s="8" t="s">
+        <v>949</v>
+      </c>
+      <c r="X22" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="Y22" s="3" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Z22" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="AB22" s="15"/>
+      <c r="AC22" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD22" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="AE22" s="10" t="s">
+        <v>949</v>
+      </c>
+      <c r="AF22" s="10" t="s">
+        <v>1110</v>
+      </c>
+      <c r="AG22" s="10"/>
+    </row>
+    <row r="23" spans="1:38" ht="15.75">
       <c r="A23" s="3" t="s">
         <v>67</v>
       </c>
@@ -4850,8 +5710,46 @@
       <c r="P23" s="3" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" ht="15.75">
+      <c r="Q23" s="8" t="s">
+        <v>948</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>1058</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="W23" s="8" t="s">
+        <v>949</v>
+      </c>
+      <c r="X23" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="Y23" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="Z23" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="AB23" s="15"/>
+      <c r="AC23" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD23" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="AE23" s="10" t="s">
+        <v>949</v>
+      </c>
+      <c r="AF23" s="10" t="s">
+        <v>1110</v>
+      </c>
+      <c r="AG23" s="10"/>
+    </row>
+    <row r="24" spans="1:38" ht="15.75">
       <c r="A24" s="3" t="s">
         <v>68</v>
       </c>
@@ -4894,8 +5792,46 @@
       <c r="P24" s="3" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" ht="15.75">
+      <c r="Q24" s="8" t="s">
+        <v>948</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>1058</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="W24" s="8" t="s">
+        <v>949</v>
+      </c>
+      <c r="X24" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="Y24" s="3" t="s">
+        <v>1063</v>
+      </c>
+      <c r="Z24" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="AB24" s="15"/>
+      <c r="AC24" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD24" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="AE24" s="10" t="s">
+        <v>949</v>
+      </c>
+      <c r="AF24" s="10" t="s">
+        <v>1110</v>
+      </c>
+      <c r="AG24" s="10"/>
+    </row>
+    <row r="25" spans="1:38" ht="15.75">
       <c r="A25" s="3" t="s">
         <v>69</v>
       </c>
@@ -4941,8 +5877,46 @@
       <c r="P25" s="3" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" ht="15.75">
+      <c r="Q25" s="8" t="s">
+        <v>948</v>
+      </c>
+      <c r="R25" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="S25" s="3" t="s">
+        <v>1058</v>
+      </c>
+      <c r="T25" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="W25" s="8" t="s">
+        <v>949</v>
+      </c>
+      <c r="X25" s="3" t="s">
+        <v>1073</v>
+      </c>
+      <c r="Y25" s="3" t="s">
+        <v>1060</v>
+      </c>
+      <c r="Z25" s="3" t="s">
+        <v>953</v>
+      </c>
+      <c r="AB25" s="15"/>
+      <c r="AC25" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD25" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="AE25" s="10" t="s">
+        <v>949</v>
+      </c>
+      <c r="AF25" s="10" t="s">
+        <v>1110</v>
+      </c>
+      <c r="AG25" s="10"/>
+    </row>
+    <row r="26" spans="1:38" ht="15.75">
       <c r="A26" s="3" t="s">
         <v>71</v>
       </c>
@@ -4983,8 +5957,20 @@
       <c r="P26" s="3" t="s">
         <v>977</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" ht="15.75">
+      <c r="Q26" s="8" t="s">
+        <v>949</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>1080</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>1058</v>
+      </c>
+      <c r="T26" s="3" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="27" spans="1:38" ht="15.75">
       <c r="A27" s="3" t="s">
         <v>73</v>
       </c>
@@ -5025,8 +6011,20 @@
       <c r="P27" s="3" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" ht="15.75">
+      <c r="Q27" s="8" t="s">
+        <v>949</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>1080</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>1058</v>
+      </c>
+      <c r="T27" s="3" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="28" spans="1:38" ht="15.75">
       <c r="A28" s="3" t="s">
         <v>74</v>
       </c>
@@ -5067,8 +6065,28 @@
       <c r="P28" s="3" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" ht="15.75">
+      <c r="Q28" s="8" t="s">
+        <v>949</v>
+      </c>
+      <c r="R28" s="3" t="s">
+        <v>1080</v>
+      </c>
+      <c r="S28" s="3" t="s">
+        <v>1058</v>
+      </c>
+      <c r="T28" s="3" t="s">
+        <v>856</v>
+      </c>
+      <c r="W28" s="8"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AB28" s="15"/>
+      <c r="AC28" s="8"/>
+      <c r="AG28" s="10"/>
+      <c r="AH28" s="15"/>
+    </row>
+    <row r="29" spans="1:38" ht="15.75">
       <c r="A29" s="3" t="s">
         <v>75</v>
       </c>
@@ -5109,8 +6127,20 @@
       <c r="P29" s="3" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" ht="15.75">
+      <c r="Q29" s="8" t="s">
+        <v>949</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>1080</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>1058</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="30" spans="1:38" ht="15.75">
       <c r="A30" s="3" t="s">
         <v>76</v>
       </c>
@@ -5151,8 +6181,20 @@
       <c r="P30" s="3" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" ht="15.75">
+      <c r="Q30" s="8" t="s">
+        <v>949</v>
+      </c>
+      <c r="R30" s="3" t="s">
+        <v>1080</v>
+      </c>
+      <c r="S30" s="3" t="s">
+        <v>1058</v>
+      </c>
+      <c r="T30" s="3" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="31" spans="1:38" ht="15.75">
       <c r="A31" s="3" t="s">
         <v>77</v>
       </c>
@@ -5193,8 +6235,20 @@
       <c r="P31" s="3" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" ht="15.75">
+      <c r="Q31" s="8" t="s">
+        <v>949</v>
+      </c>
+      <c r="R31" s="3" t="s">
+        <v>1080</v>
+      </c>
+      <c r="S31" s="3" t="s">
+        <v>1058</v>
+      </c>
+      <c r="T31" s="3" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="32" spans="1:38" ht="15.75">
       <c r="A32" s="3" t="s">
         <v>78</v>
       </c>
@@ -5235,8 +6289,20 @@
       <c r="P32" s="3" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" ht="15.75">
+      <c r="Q32" s="8" t="s">
+        <v>949</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>1080</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>1058</v>
+      </c>
+      <c r="T32" s="3" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" ht="15.75">
       <c r="A33" s="3" t="s">
         <v>79</v>
       </c>
@@ -5277,8 +6343,20 @@
       <c r="P33" s="3" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" ht="15.75">
+      <c r="Q33" s="8" t="s">
+        <v>949</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>1080</v>
+      </c>
+      <c r="S33" s="3" t="s">
+        <v>1058</v>
+      </c>
+      <c r="T33" s="3" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" ht="15.75">
       <c r="A34" s="3" t="s">
         <v>82</v>
       </c>
@@ -5321,8 +6399,38 @@
       <c r="P34" s="6" t="s">
         <v>897</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" ht="15.75">
+      <c r="Q34" s="8" t="s">
+        <v>949</v>
+      </c>
+      <c r="R34" s="3" t="s">
+        <v>1075</v>
+      </c>
+      <c r="S34" s="3" t="s">
+        <v>1056</v>
+      </c>
+      <c r="T34" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="V34" s="15" t="s">
+        <v>1099</v>
+      </c>
+      <c r="W34" s="8" t="s">
+        <v>949</v>
+      </c>
+      <c r="X34" s="3" t="s">
+        <v>1075</v>
+      </c>
+      <c r="Y34" s="3" t="s">
+        <v>949</v>
+      </c>
+      <c r="Z34" s="3" t="s">
+        <v>1101</v>
+      </c>
+      <c r="AB34" s="15" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" ht="15.75">
       <c r="A35" s="3" t="s">
         <v>83</v>
       </c>
@@ -5365,8 +6473,20 @@
       <c r="P35" s="3" t="s">
         <v>894</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" ht="15.75">
+      <c r="Q35" s="8" t="s">
+        <v>949</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>1048</v>
+      </c>
+      <c r="S35" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="T35" s="3" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" ht="15.75">
       <c r="A36" s="3" t="s">
         <v>84</v>
       </c>
@@ -5409,8 +6529,20 @@
       <c r="P36" s="6" t="s">
         <v>897</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" ht="15.75">
+      <c r="Q36" s="8" t="s">
+        <v>949</v>
+      </c>
+      <c r="R36" s="3" t="s">
+        <v>1048</v>
+      </c>
+      <c r="S36" s="3" t="s">
+        <v>1064</v>
+      </c>
+      <c r="T36" s="3" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" ht="15.75">
       <c r="A37" s="3" t="s">
         <v>85</v>
       </c>
@@ -5453,8 +6585,20 @@
       <c r="P37" s="6" t="s">
         <v>897</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" ht="15.75">
+      <c r="Q37" s="8" t="s">
+        <v>949</v>
+      </c>
+      <c r="R37" s="3" t="s">
+        <v>1102</v>
+      </c>
+      <c r="S37" s="3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="T37" s="3" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" ht="15.75">
       <c r="A38" s="3" t="s">
         <v>86</v>
       </c>
@@ -5497,8 +6641,20 @@
       <c r="P38" s="6" t="s">
         <v>897</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" ht="15.75">
+      <c r="Q38" s="8" t="s">
+        <v>949</v>
+      </c>
+      <c r="R38" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="S38" s="3" t="s">
+        <v>1067</v>
+      </c>
+      <c r="T38" s="3" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" ht="15.75">
       <c r="A39" s="3" t="s">
         <v>87</v>
       </c>
@@ -5541,8 +6697,20 @@
       <c r="P39" s="6" t="s">
         <v>897</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" ht="15.75">
+      <c r="Q39" s="8" t="s">
+        <v>949</v>
+      </c>
+      <c r="R39" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="S39" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="T39" s="3" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" ht="15.75">
       <c r="A40" s="3" t="s">
         <v>88</v>
       </c>
@@ -5585,8 +6753,20 @@
       <c r="P40" s="6" t="s">
         <v>897</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" ht="15.75">
+      <c r="Q40" s="8" t="s">
+        <v>949</v>
+      </c>
+      <c r="R40" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="S40" s="3" t="s">
+        <v>1063</v>
+      </c>
+      <c r="T40" s="3" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" ht="15.75">
       <c r="A41" s="3" t="s">
         <v>89</v>
       </c>
@@ -5632,8 +6812,20 @@
       <c r="P41" s="6" t="s">
         <v>897</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" ht="15.75">
+      <c r="Q41" s="8" t="s">
+        <v>949</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>1073</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>1060</v>
+      </c>
+      <c r="T41" s="3" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" ht="15.75">
       <c r="A42" s="3" t="s">
         <v>125</v>
       </c>
@@ -5674,8 +6866,20 @@
       <c r="P42" s="3" t="s">
         <v>977</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" ht="15.75">
+      <c r="Q42" s="8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="R42" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="S42" s="3" t="s">
+        <v>949</v>
+      </c>
+      <c r="T42" s="3" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" ht="15.75">
       <c r="A43" s="3" t="s">
         <v>126</v>
       </c>
@@ -5716,8 +6920,20 @@
       <c r="P43" s="3" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" ht="15.75">
+      <c r="Q43" s="8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>949</v>
+      </c>
+      <c r="T43" s="3" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" ht="15.75">
       <c r="A44" s="3" t="s">
         <v>127</v>
       </c>
@@ -5758,8 +6974,20 @@
       <c r="P44" s="3" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="45" spans="1:16" ht="15.75">
+      <c r="Q44" s="8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="R44" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="S44" s="3" t="s">
+        <v>949</v>
+      </c>
+      <c r="T44" s="3" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" ht="15.75">
       <c r="A45" s="3" t="s">
         <v>128</v>
       </c>
@@ -5800,8 +7028,20 @@
       <c r="P45" s="3" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="46" spans="1:16" ht="15.75">
+      <c r="Q45" s="8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>949</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" ht="15.75">
       <c r="A46" s="3" t="s">
         <v>129</v>
       </c>
@@ -5842,8 +7082,20 @@
       <c r="P46" s="3" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" ht="15.75">
+      <c r="Q46" s="8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>949</v>
+      </c>
+      <c r="T46" s="3" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" ht="15.75">
       <c r="A47" s="3" t="s">
         <v>100</v>
       </c>
@@ -5884,8 +7136,20 @@
       <c r="P47" s="3" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="48" spans="1:16" ht="15.75">
+      <c r="Q47" s="8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>1071</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="T47" s="3" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" ht="15.75">
       <c r="A48" s="3" t="s">
         <v>101</v>
       </c>
@@ -5926,8 +7190,20 @@
       <c r="P48" s="3" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="49" spans="1:16" ht="15.75">
+      <c r="Q48" s="8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>1071</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="T48" s="3" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" ht="15.75">
       <c r="A49" s="3" t="s">
         <v>130</v>
       </c>
@@ -5968,8 +7244,20 @@
       <c r="P49" s="3" t="s">
         <v>895</v>
       </c>
-    </row>
-    <row r="50" spans="1:16" ht="15.75">
+      <c r="Q49" s="8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>1071</v>
+      </c>
+      <c r="S49" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="T49" s="3" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" ht="15.75">
       <c r="A50" s="3" t="s">
         <v>131</v>
       </c>
@@ -6010,8 +7298,20 @@
       <c r="P50" s="3" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="51" spans="1:16" ht="15.75">
+      <c r="Q50" s="8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="R50" s="3" t="s">
+        <v>1071</v>
+      </c>
+      <c r="S50" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="T50" s="3" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" ht="15.75">
       <c r="A51" s="3" t="s">
         <v>132</v>
       </c>
@@ -6052,8 +7352,20 @@
       <c r="P51" s="3" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="52" spans="1:16" ht="15.75">
+      <c r="Q51" s="8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="R51" s="3" t="s">
+        <v>1071</v>
+      </c>
+      <c r="S51" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="T51" s="3" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" ht="15.75">
       <c r="A52" s="3" t="s">
         <v>133</v>
       </c>
@@ -6094,8 +7406,20 @@
       <c r="P52" s="3" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="53" spans="1:16" ht="15.75">
+      <c r="Q52" s="8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>1071</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="T52" s="3" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" ht="15.75">
       <c r="A53" s="3" t="s">
         <v>134</v>
       </c>
@@ -6136,8 +7460,20 @@
       <c r="P53" s="3" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="54" spans="1:16" ht="15.75">
+      <c r="Q53" s="8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="R53" s="3" t="s">
+        <v>1071</v>
+      </c>
+      <c r="S53" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="T53" s="3" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" ht="15.75">
       <c r="A54" s="3" t="s">
         <v>113</v>
       </c>
@@ -6178,8 +7514,20 @@
       <c r="P54" s="3" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="55" spans="1:16" ht="15.75">
+      <c r="Q54" s="8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="R54" s="3" t="s">
+        <v>1064</v>
+      </c>
+      <c r="S54" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="T54" s="3" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" ht="15.75">
       <c r="A55" s="3" t="s">
         <v>114</v>
       </c>
@@ -6220,8 +7568,20 @@
       <c r="P55" s="3" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="56" spans="1:16" ht="15.75">
+      <c r="Q55" s="8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="R55" s="3" t="s">
+        <v>1064</v>
+      </c>
+      <c r="S55" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="T55" s="3" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" ht="15.75">
       <c r="A56" s="3" t="s">
         <v>135</v>
       </c>
@@ -6262,8 +7622,20 @@
       <c r="P56" s="3" t="s">
         <v>897</v>
       </c>
-    </row>
-    <row r="57" spans="1:16" ht="15.75">
+      <c r="Q56" s="8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="R56" s="3" t="s">
+        <v>1064</v>
+      </c>
+      <c r="S56" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="T56" s="3" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" ht="15.75">
       <c r="A57" s="3" t="s">
         <v>136</v>
       </c>
@@ -6304,8 +7676,20 @@
       <c r="P57" s="3" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="58" spans="1:16" ht="15.75">
+      <c r="Q57" s="8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>1064</v>
+      </c>
+      <c r="S57" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="T57" s="3" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" ht="15.75">
       <c r="A58" s="3" t="s">
         <v>137</v>
       </c>
@@ -6346,8 +7730,20 @@
       <c r="P58" s="3" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="59" spans="1:16" ht="15.75">
+      <c r="Q58" s="8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>1064</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="T58" s="3" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" ht="15.75">
       <c r="A59" s="3" t="s">
         <v>138</v>
       </c>
@@ -6388,8 +7784,20 @@
       <c r="P59" s="3" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="60" spans="1:16" ht="15.75">
+      <c r="Q59" s="8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>1064</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="T59" s="3" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" ht="15.75">
       <c r="A60" s="3" t="s">
         <v>139</v>
       </c>
@@ -6430,8 +7838,20 @@
       <c r="P60" s="3" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="61" spans="1:16" ht="15.75">
+      <c r="Q60" s="8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="R60" s="3" t="s">
+        <v>1064</v>
+      </c>
+      <c r="S60" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="T60" s="3" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" ht="15.75">
       <c r="A61" s="3" t="s">
         <v>121</v>
       </c>
@@ -6475,8 +7895,20 @@
       <c r="P61" s="3" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="62" spans="1:16" ht="15.75">
+      <c r="Q61" s="8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="R61" s="3" t="s">
+        <v>1064</v>
+      </c>
+      <c r="S61" s="3" t="s">
+        <v>1113</v>
+      </c>
+      <c r="T61" s="3" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" ht="15.75">
       <c r="A62" s="3" t="s">
         <v>122</v>
       </c>
@@ -6520,8 +7952,20 @@
       <c r="P62" s="3" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="63" spans="1:16" ht="15.75">
+      <c r="Q62" s="8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>1064</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>1113</v>
+      </c>
+      <c r="T62" s="3" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" ht="15.75">
       <c r="A63" s="3" t="s">
         <v>140</v>
       </c>
@@ -6565,8 +8009,20 @@
       <c r="P63" s="3" t="s">
         <v>897</v>
       </c>
-    </row>
-    <row r="64" spans="1:16" ht="15.75">
+      <c r="Q63" s="8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="R63" s="3" t="s">
+        <v>1064</v>
+      </c>
+      <c r="S63" s="3" t="s">
+        <v>1113</v>
+      </c>
+      <c r="T63" s="3" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" ht="15.75">
       <c r="A64" s="3" t="s">
         <v>141</v>
       </c>
@@ -6610,8 +8066,20 @@
       <c r="P64" s="3" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="65" spans="1:16" ht="15.75">
+      <c r="Q64" s="8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="R64" s="3" t="s">
+        <v>1064</v>
+      </c>
+      <c r="S64" s="3" t="s">
+        <v>1113</v>
+      </c>
+      <c r="T64" s="3" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" ht="15.75">
       <c r="A65" s="3" t="s">
         <v>142</v>
       </c>
@@ -6655,8 +8123,20 @@
       <c r="P65" s="3" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="66" spans="1:16" ht="15.75">
+      <c r="Q65" s="8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="R65" s="3" t="s">
+        <v>1064</v>
+      </c>
+      <c r="S65" s="3" t="s">
+        <v>1113</v>
+      </c>
+      <c r="T65" s="3" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" ht="15.75">
       <c r="A66" s="3" t="s">
         <v>143</v>
       </c>
@@ -6700,8 +8180,20 @@
       <c r="P66" s="3" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="67" spans="1:16" ht="15.75">
+      <c r="Q66" s="8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>1064</v>
+      </c>
+      <c r="S66" s="3" t="s">
+        <v>1113</v>
+      </c>
+      <c r="T66" s="3" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" ht="15.75">
       <c r="A67" s="3" t="s">
         <v>144</v>
       </c>
@@ -6745,8 +8237,20 @@
       <c r="P67" s="3" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="68" spans="1:16" ht="15.75">
+      <c r="Q67" s="8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="R67" s="3" t="s">
+        <v>1064</v>
+      </c>
+      <c r="S67" s="3" t="s">
+        <v>1113</v>
+      </c>
+      <c r="T67" s="3" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" ht="15.75">
       <c r="A68" s="3" t="s">
         <v>157</v>
       </c>
@@ -6790,8 +8294,20 @@
       <c r="P68" s="3" t="s">
         <v>977</v>
       </c>
-    </row>
-    <row r="69" spans="1:16" ht="15.75">
+      <c r="Q68" s="8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="R68" s="3" t="s">
+        <v>1071</v>
+      </c>
+      <c r="S68" s="3" t="s">
+        <v>949</v>
+      </c>
+      <c r="T68" s="3" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" ht="15.75">
       <c r="A69" s="3" t="s">
         <v>158</v>
       </c>
@@ -6835,8 +8351,20 @@
       <c r="P69" s="3" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="70" spans="1:16" ht="15.75">
+      <c r="Q69" s="8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="R69" s="3" t="s">
+        <v>1071</v>
+      </c>
+      <c r="S69" s="3" t="s">
+        <v>949</v>
+      </c>
+      <c r="T69" s="3" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" ht="15.75">
       <c r="A70" s="3" t="s">
         <v>159</v>
       </c>
@@ -6880,8 +8408,20 @@
       <c r="P70" s="3" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="71" spans="1:16" ht="15.75">
+      <c r="Q70" s="8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="R70" s="3" t="s">
+        <v>1071</v>
+      </c>
+      <c r="S70" s="3" t="s">
+        <v>949</v>
+      </c>
+      <c r="T70" s="3" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" ht="15.75">
       <c r="A71" s="3" t="s">
         <v>165</v>
       </c>
@@ -6922,8 +8462,20 @@
       <c r="P71" s="3" t="s">
         <v>977</v>
       </c>
-    </row>
-    <row r="72" spans="1:16" ht="15.75">
+      <c r="Q71" s="8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="R71" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="S71" s="3" t="s">
+        <v>1054</v>
+      </c>
+      <c r="T71" s="3" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" ht="15.75">
       <c r="A72" s="3" t="s">
         <v>166</v>
       </c>
@@ -6964,8 +8516,20 @@
       <c r="P72" s="3" t="s">
         <v>895</v>
       </c>
-    </row>
-    <row r="73" spans="1:16" ht="15.75">
+      <c r="Q72" s="8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="S72" s="3" t="s">
+        <v>1054</v>
+      </c>
+      <c r="T72" s="3" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" ht="15.75">
       <c r="A73" s="3" t="s">
         <v>167</v>
       </c>
@@ -7006,8 +8570,20 @@
       <c r="P73" s="3" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="74" spans="1:16" ht="15.75">
+      <c r="Q73" s="8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="R73" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="S73" s="3" t="s">
+        <v>1054</v>
+      </c>
+      <c r="T73" s="3" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" ht="15.75">
       <c r="A74" s="3" t="s">
         <v>168</v>
       </c>
@@ -7048,8 +8624,20 @@
       <c r="P74" s="3" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="75" spans="1:16" ht="15.75">
+      <c r="Q74" s="8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="R74" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="S74" s="3" t="s">
+        <v>1054</v>
+      </c>
+      <c r="T74" s="3" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" ht="15.75">
       <c r="A75" s="3" t="s">
         <v>171</v>
       </c>
@@ -7090,8 +8678,20 @@
       <c r="P75" s="3" t="s">
         <v>897</v>
       </c>
-    </row>
-    <row r="76" spans="1:16" ht="15.75">
+      <c r="Q75" s="8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="R75" s="3" t="s">
+        <v>1061</v>
+      </c>
+      <c r="S75" s="3" t="s">
+        <v>1113</v>
+      </c>
+      <c r="T75" s="3" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" ht="15.75">
       <c r="A76" s="3" t="s">
         <v>172</v>
       </c>
@@ -7132,8 +8732,20 @@
       <c r="P76" s="3" t="s">
         <v>897</v>
       </c>
-    </row>
-    <row r="77" spans="1:16" ht="15.75">
+      <c r="Q76" s="8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>1061</v>
+      </c>
+      <c r="S76" s="3" t="s">
+        <v>1113</v>
+      </c>
+      <c r="T76" s="3" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" ht="15.75">
       <c r="A77" s="3" t="s">
         <v>173</v>
       </c>
@@ -7174,8 +8786,20 @@
       <c r="P77" s="3" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="78" spans="1:16" ht="15.75">
+      <c r="Q77" s="8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="R77" s="3" t="s">
+        <v>1061</v>
+      </c>
+      <c r="S77" s="3" t="s">
+        <v>1113</v>
+      </c>
+      <c r="T77" s="3" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" ht="15.75">
       <c r="A78" s="3" t="s">
         <v>174</v>
       </c>
@@ -7216,8 +8840,20 @@
       <c r="P78" s="3" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="79" spans="1:16" ht="15.75">
+      <c r="Q78" s="8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="R78" s="3" t="s">
+        <v>1061</v>
+      </c>
+      <c r="S78" s="3" t="s">
+        <v>1113</v>
+      </c>
+      <c r="T78" s="3" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" ht="15.75">
       <c r="A79" s="3" t="s">
         <v>175</v>
       </c>
@@ -7258,8 +8894,20 @@
       <c r="P79" s="3" t="s">
         <v>897</v>
       </c>
-    </row>
-    <row r="80" spans="1:16" ht="15.75">
+      <c r="Q79" s="8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="R79" s="3" t="s">
+        <v>1056</v>
+      </c>
+      <c r="S79" s="3" t="s">
+        <v>1102</v>
+      </c>
+      <c r="T79" s="3" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" ht="15.75">
       <c r="A80" s="3" t="s">
         <v>176</v>
       </c>
@@ -7300,8 +8948,20 @@
       <c r="P80" s="3" t="s">
         <v>897</v>
       </c>
-    </row>
-    <row r="81" spans="1:16" ht="15.75">
+      <c r="Q80" s="8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="R80" s="3" t="s">
+        <v>1056</v>
+      </c>
+      <c r="S80" s="3" t="s">
+        <v>1102</v>
+      </c>
+      <c r="T80" s="3" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" ht="15.75">
       <c r="A81" s="3" t="s">
         <v>177</v>
       </c>
@@ -7342,8 +9002,20 @@
       <c r="P81" s="3" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="82" spans="1:16" ht="15.75">
+      <c r="Q81" s="8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="R81" s="3" t="s">
+        <v>1056</v>
+      </c>
+      <c r="S81" s="3" t="s">
+        <v>1102</v>
+      </c>
+      <c r="T81" s="3" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" ht="15.75">
       <c r="A82" s="3" t="s">
         <v>178</v>
       </c>
@@ -7384,8 +9056,20 @@
       <c r="P82" s="3" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="83" spans="1:16" ht="15.75">
+      <c r="Q82" s="8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="R82" s="3" t="s">
+        <v>1056</v>
+      </c>
+      <c r="S82" s="3" t="s">
+        <v>1102</v>
+      </c>
+      <c r="T82" s="3" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" ht="15.75">
       <c r="A83" s="3" t="s">
         <v>179</v>
       </c>
@@ -7426,8 +9110,20 @@
       <c r="P83" s="3" t="s">
         <v>897</v>
       </c>
-    </row>
-    <row r="84" spans="1:16" ht="15.75">
+      <c r="Q83" s="8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="R83" s="3" t="s">
+        <v>1062</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>1048</v>
+      </c>
+      <c r="T83" s="3" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" ht="15.75">
       <c r="A84" s="3" t="s">
         <v>180</v>
       </c>
@@ -7468,8 +9164,20 @@
       <c r="P84" s="3" t="s">
         <v>897</v>
       </c>
-    </row>
-    <row r="85" spans="1:16" ht="15.75">
+      <c r="Q84" s="8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="R84" s="3" t="s">
+        <v>1062</v>
+      </c>
+      <c r="S84" s="3" t="s">
+        <v>1048</v>
+      </c>
+      <c r="T84" s="3" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" ht="15.75">
       <c r="A85" s="3" t="s">
         <v>181</v>
       </c>
@@ -7510,8 +9218,20 @@
       <c r="P85" s="3" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="86" spans="1:16" ht="15.75">
+      <c r="Q85" s="8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="R85" s="3" t="s">
+        <v>1062</v>
+      </c>
+      <c r="S85" s="3" t="s">
+        <v>1048</v>
+      </c>
+      <c r="T85" s="3" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" ht="15.75">
       <c r="A86" s="3" t="s">
         <v>182</v>
       </c>
@@ -7552,8 +9272,20 @@
       <c r="P86" s="3" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="87" spans="1:16" ht="15.75">
+      <c r="Q86" s="8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="R86" s="3" t="s">
+        <v>1062</v>
+      </c>
+      <c r="S86" s="3" t="s">
+        <v>1048</v>
+      </c>
+      <c r="T86" s="3" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" ht="15.75">
       <c r="A87" s="3" t="s">
         <v>183</v>
       </c>
@@ -7594,8 +9326,20 @@
       <c r="P87" s="3" t="s">
         <v>897</v>
       </c>
-    </row>
-    <row r="88" spans="1:16" ht="15.75">
+      <c r="Q87" s="8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="R87" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="S87" s="3" t="s">
+        <v>1074</v>
+      </c>
+      <c r="T87" s="3" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" ht="15.75">
       <c r="A88" s="3" t="s">
         <v>184</v>
       </c>
@@ -7636,8 +9380,20 @@
       <c r="P88" s="3" t="s">
         <v>897</v>
       </c>
-    </row>
-    <row r="89" spans="1:16" ht="15.75">
+      <c r="Q88" s="8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="R88" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="S88" s="3" t="s">
+        <v>1074</v>
+      </c>
+      <c r="T88" s="3" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" ht="15.75">
       <c r="A89" s="3" t="s">
         <v>185</v>
       </c>
@@ -7678,8 +9434,20 @@
       <c r="P89" s="3" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="90" spans="1:16" ht="15.75">
+      <c r="Q89" s="8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="R89" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="S89" s="3" t="s">
+        <v>1074</v>
+      </c>
+      <c r="T89" s="3" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" ht="15.75">
       <c r="A90" s="3" t="s">
         <v>186</v>
       </c>
@@ -7720,8 +9488,20 @@
       <c r="P90" s="3" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="91" spans="1:16" ht="15.75">
+      <c r="Q90" s="8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="R90" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="S90" s="3" t="s">
+        <v>1074</v>
+      </c>
+      <c r="T90" s="3" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" ht="15.75">
       <c r="A91" s="3" t="s">
         <v>187</v>
       </c>
@@ -7763,7 +9543,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="92" spans="1:16" ht="15.75">
+    <row r="92" spans="1:20" ht="15.75">
       <c r="A92" s="3" t="s">
         <v>191</v>
       </c>
@@ -7805,7 +9585,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="93" spans="1:16" ht="15.75">
+    <row r="93" spans="1:20" ht="15.75">
       <c r="A93" s="3" t="s">
         <v>195</v>
       </c>
@@ -7849,7 +9629,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="94" spans="1:16" ht="15.75">
+    <row r="94" spans="1:20" ht="15.75">
       <c r="A94" s="3" t="s">
         <v>198</v>
       </c>
@@ -7893,7 +9673,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="95" spans="1:16" ht="15.75">
+    <row r="95" spans="1:20" ht="15.75">
       <c r="A95" s="3" t="s">
         <v>199</v>
       </c>
@@ -7937,7 +9717,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="96" spans="1:16" ht="15.75">
+    <row r="96" spans="1:20" ht="15.75">
       <c r="A96" s="3" t="s">
         <v>200</v>
       </c>
@@ -9365,7 +11145,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="129" spans="1:16" ht="15.75">
+    <row r="129" spans="1:20" ht="15.75">
       <c r="A129" s="3" t="s">
         <v>256</v>
       </c>
@@ -9407,7 +11187,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="130" spans="1:16" ht="15.75">
+    <row r="130" spans="1:20" ht="15.75">
       <c r="A130" s="3" t="s">
         <v>265</v>
       </c>
@@ -9448,8 +11228,20 @@
       <c r="P130" s="6" t="s">
         <v>897</v>
       </c>
-    </row>
-    <row r="131" spans="1:16" ht="15.75">
+      <c r="Q130" s="8" t="s">
+        <v>1058</v>
+      </c>
+      <c r="R130" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="S130" s="3" t="s">
+        <v>1058</v>
+      </c>
+      <c r="T130" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="131" spans="1:20" ht="15.75">
       <c r="A131" s="3" t="s">
         <v>266</v>
       </c>
@@ -9492,8 +11284,20 @@
       <c r="P131" s="3" t="s">
         <v>894</v>
       </c>
-    </row>
-    <row r="132" spans="1:16" ht="15.75">
+      <c r="Q131" s="8" t="s">
+        <v>1058</v>
+      </c>
+      <c r="R131" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="S131" s="3" t="s">
+        <v>1058</v>
+      </c>
+      <c r="T131" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="132" spans="1:20" ht="15.75">
       <c r="A132" s="3" t="s">
         <v>267</v>
       </c>
@@ -9536,8 +11340,20 @@
       <c r="P132" s="6" t="s">
         <v>897</v>
       </c>
-    </row>
-    <row r="133" spans="1:16" ht="15.75">
+      <c r="Q132" s="8" t="s">
+        <v>1058</v>
+      </c>
+      <c r="R132" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="S132" s="3" t="s">
+        <v>1058</v>
+      </c>
+      <c r="T132" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="133" spans="1:20" ht="15.75">
       <c r="A133" s="3" t="s">
         <v>268</v>
       </c>
@@ -9580,8 +11396,20 @@
       <c r="P133" s="6" t="s">
         <v>897</v>
       </c>
-    </row>
-    <row r="134" spans="1:16" ht="15.75">
+      <c r="Q133" s="8" t="s">
+        <v>1058</v>
+      </c>
+      <c r="R133" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="S133" s="3" t="s">
+        <v>1058</v>
+      </c>
+      <c r="T133" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="134" spans="1:20" ht="15.75">
       <c r="A134" s="3" t="s">
         <v>269</v>
       </c>
@@ -9624,8 +11452,20 @@
       <c r="P134" s="6" t="s">
         <v>897</v>
       </c>
-    </row>
-    <row r="135" spans="1:16" ht="15.75">
+      <c r="Q134" s="8" t="s">
+        <v>1058</v>
+      </c>
+      <c r="R134" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="S134" s="3" t="s">
+        <v>1058</v>
+      </c>
+      <c r="T134" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="135" spans="1:20" ht="15.75">
       <c r="A135" s="3" t="s">
         <v>270</v>
       </c>
@@ -9668,8 +11508,20 @@
       <c r="P135" s="6" t="s">
         <v>897</v>
       </c>
-    </row>
-    <row r="136" spans="1:16" ht="15.75">
+      <c r="Q135" s="8" t="s">
+        <v>1058</v>
+      </c>
+      <c r="R135" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="S135" s="3" t="s">
+        <v>1058</v>
+      </c>
+      <c r="T135" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="136" spans="1:20" ht="15.75">
       <c r="A136" t="s">
         <v>271</v>
       </c>
@@ -9712,8 +11564,20 @@
       <c r="P136" s="6" t="s">
         <v>897</v>
       </c>
-    </row>
-    <row r="137" spans="1:16" ht="15.75">
+      <c r="Q136" s="8" t="s">
+        <v>1058</v>
+      </c>
+      <c r="R136" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="S136" s="3" t="s">
+        <v>1058</v>
+      </c>
+      <c r="T136" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="137" spans="1:20" ht="15.75">
       <c r="A137" t="s">
         <v>272</v>
       </c>
@@ -9759,8 +11623,20 @@
       <c r="P137" s="6" t="s">
         <v>897</v>
       </c>
-    </row>
-    <row r="138" spans="1:16" ht="15.75">
+      <c r="Q137" s="8" t="s">
+        <v>1058</v>
+      </c>
+      <c r="R137" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="S137" s="3" t="s">
+        <v>1058</v>
+      </c>
+      <c r="T137" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="138" spans="1:20" ht="15.75">
       <c r="A138" t="s">
         <v>274</v>
       </c>
@@ -9803,8 +11679,20 @@
       <c r="P138" s="3" t="s">
         <v>895</v>
       </c>
-    </row>
-    <row r="139" spans="1:16" ht="15.75">
+      <c r="Q138" s="8" t="s">
+        <v>949</v>
+      </c>
+      <c r="R138" s="3" t="s">
+        <v>1080</v>
+      </c>
+      <c r="S138" s="3" t="s">
+        <v>1058</v>
+      </c>
+      <c r="T138" s="3" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="139" spans="1:20" ht="15.75">
       <c r="A139" s="3" t="s">
         <v>277</v>
       </c>
@@ -9847,8 +11735,20 @@
       <c r="P139" s="3" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="140" spans="1:16" ht="15.75">
+      <c r="Q139" s="8" t="s">
+        <v>949</v>
+      </c>
+      <c r="R139" s="3" t="s">
+        <v>1080</v>
+      </c>
+      <c r="S139" s="3" t="s">
+        <v>1058</v>
+      </c>
+      <c r="T139" s="3" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="140" spans="1:20" ht="15.75">
       <c r="A140" s="3" t="s">
         <v>279</v>
       </c>
@@ -9891,8 +11791,20 @@
       <c r="P140" s="3" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="141" spans="1:16" ht="15.75">
+      <c r="Q140" s="8" t="s">
+        <v>949</v>
+      </c>
+      <c r="R140" s="3" t="s">
+        <v>1080</v>
+      </c>
+      <c r="S140" s="3" t="s">
+        <v>1058</v>
+      </c>
+      <c r="T140" s="3" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="141" spans="1:20" ht="15.75">
       <c r="A141" s="3" t="s">
         <v>275</v>
       </c>
@@ -9935,8 +11847,20 @@
       <c r="P141" s="3" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="142" spans="1:16" ht="15.75">
+      <c r="Q141" s="8" t="s">
+        <v>949</v>
+      </c>
+      <c r="R141" s="3" t="s">
+        <v>1080</v>
+      </c>
+      <c r="S141" s="3" t="s">
+        <v>1058</v>
+      </c>
+      <c r="T141" s="3" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="142" spans="1:20" ht="15.75">
       <c r="A142" s="3" t="s">
         <v>280</v>
       </c>
@@ -9979,8 +11903,20 @@
       <c r="P142" s="3" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="143" spans="1:16" ht="15.75">
+      <c r="Q142" s="8" t="s">
+        <v>949</v>
+      </c>
+      <c r="R142" s="3" t="s">
+        <v>1080</v>
+      </c>
+      <c r="S142" s="3" t="s">
+        <v>1058</v>
+      </c>
+      <c r="T142" s="3" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="143" spans="1:20" ht="15.75">
       <c r="A143" s="3" t="s">
         <v>281</v>
       </c>
@@ -10023,8 +11959,20 @@
       <c r="P143" s="3" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="144" spans="1:16" ht="15.75">
+      <c r="Q143" s="8" t="s">
+        <v>949</v>
+      </c>
+      <c r="R143" s="3" t="s">
+        <v>1080</v>
+      </c>
+      <c r="S143" s="3" t="s">
+        <v>1058</v>
+      </c>
+      <c r="T143" s="3" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="144" spans="1:20" ht="15.75">
       <c r="A144" s="3" t="s">
         <v>282</v>
       </c>
@@ -10067,8 +12015,20 @@
       <c r="P144" s="3" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="145" spans="1:16" ht="15.75">
+      <c r="Q144" s="8" t="s">
+        <v>949</v>
+      </c>
+      <c r="R144" s="3" t="s">
+        <v>1080</v>
+      </c>
+      <c r="S144" s="3" t="s">
+        <v>1058</v>
+      </c>
+      <c r="T144" s="3" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="145" spans="1:28" ht="15.75">
       <c r="A145" s="3" t="s">
         <v>283</v>
       </c>
@@ -10111,8 +12071,20 @@
       <c r="P145" s="3" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="146" spans="1:16" ht="15.75">
+      <c r="Q145" s="8" t="s">
+        <v>949</v>
+      </c>
+      <c r="R145" s="3" t="s">
+        <v>1080</v>
+      </c>
+      <c r="S145" s="3" t="s">
+        <v>1058</v>
+      </c>
+      <c r="T145" s="3" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="146" spans="1:28" ht="15.75">
       <c r="A146" s="3" t="s">
         <v>284</v>
       </c>
@@ -10158,8 +12130,38 @@
       <c r="P146" s="6" t="s">
         <v>894</v>
       </c>
-    </row>
-    <row r="147" spans="1:16" ht="15.75">
+      <c r="Q146" s="8" t="s">
+        <v>949</v>
+      </c>
+      <c r="R146" s="3" t="s">
+        <v>1075</v>
+      </c>
+      <c r="S146" s="3" t="s">
+        <v>1056</v>
+      </c>
+      <c r="T146" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="V146" s="15" t="s">
+        <v>1099</v>
+      </c>
+      <c r="W146" s="8" t="s">
+        <v>949</v>
+      </c>
+      <c r="X146" s="3" t="s">
+        <v>1075</v>
+      </c>
+      <c r="Y146" s="3" t="s">
+        <v>949</v>
+      </c>
+      <c r="Z146" s="3" t="s">
+        <v>1101</v>
+      </c>
+      <c r="AB146" s="15" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="147" spans="1:28" ht="15.75">
       <c r="A147" s="3" t="s">
         <v>285</v>
       </c>
@@ -10205,8 +12207,20 @@
       <c r="P147" s="6" t="s">
         <v>894</v>
       </c>
-    </row>
-    <row r="148" spans="1:16" ht="15.75">
+      <c r="Q147" s="8" t="s">
+        <v>949</v>
+      </c>
+      <c r="R147" s="3" t="s">
+        <v>1102</v>
+      </c>
+      <c r="S147" s="3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="T147" s="3" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="148" spans="1:28" ht="15.75">
       <c r="A148" s="3" t="s">
         <v>286</v>
       </c>
@@ -10252,8 +12266,20 @@
       <c r="P148" s="6" t="s">
         <v>894</v>
       </c>
-    </row>
-    <row r="149" spans="1:16" ht="15.75">
+      <c r="Q148" s="8" t="s">
+        <v>949</v>
+      </c>
+      <c r="R148" s="3" t="s">
+        <v>1102</v>
+      </c>
+      <c r="S148" s="3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="T148" s="3" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="149" spans="1:28" ht="15.75">
       <c r="A149" s="3" t="s">
         <v>287</v>
       </c>
@@ -10299,8 +12325,20 @@
       <c r="P149" s="6" t="s">
         <v>894</v>
       </c>
-    </row>
-    <row r="150" spans="1:16" ht="15.75">
+      <c r="Q149" s="8" t="s">
+        <v>949</v>
+      </c>
+      <c r="R149" s="3" t="s">
+        <v>1102</v>
+      </c>
+      <c r="S149" s="3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="T149" s="3" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="150" spans="1:28" ht="15.75">
       <c r="A150" s="3" t="s">
         <v>288</v>
       </c>
@@ -10346,8 +12384,20 @@
       <c r="P150" s="6" t="s">
         <v>894</v>
       </c>
-    </row>
-    <row r="151" spans="1:16" ht="15.75">
+      <c r="Q150" s="8" t="s">
+        <v>949</v>
+      </c>
+      <c r="R150" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="S150" s="3" t="s">
+        <v>1067</v>
+      </c>
+      <c r="T150" s="3" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="151" spans="1:28" ht="15.75">
       <c r="A151" s="3" t="s">
         <v>289</v>
       </c>
@@ -10393,8 +12443,20 @@
       <c r="P151" s="6" t="s">
         <v>894</v>
       </c>
-    </row>
-    <row r="152" spans="1:16" ht="15.75">
+      <c r="Q151" s="8" t="s">
+        <v>949</v>
+      </c>
+      <c r="R151" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="S151" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="T151" s="3" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="152" spans="1:28" ht="15.75">
       <c r="A152" s="3" t="s">
         <v>290</v>
       </c>
@@ -10440,8 +12502,20 @@
       <c r="P152" s="6" t="s">
         <v>894</v>
       </c>
-    </row>
-    <row r="153" spans="1:16" ht="15.75">
+      <c r="Q152" s="8" t="s">
+        <v>949</v>
+      </c>
+      <c r="R152" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="S152" s="3" t="s">
+        <v>1063</v>
+      </c>
+      <c r="T152" s="3" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="153" spans="1:28" ht="15.75">
       <c r="A153" s="3" t="s">
         <v>291</v>
       </c>
@@ -10490,8 +12564,20 @@
       <c r="P153" s="6" t="s">
         <v>894</v>
       </c>
-    </row>
-    <row r="154" spans="1:16" ht="15.75">
+      <c r="Q153" s="8" t="s">
+        <v>949</v>
+      </c>
+      <c r="R153" s="3" t="s">
+        <v>1073</v>
+      </c>
+      <c r="S153" s="3" t="s">
+        <v>1060</v>
+      </c>
+      <c r="T153" s="3" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="154" spans="1:28" ht="15.75">
       <c r="A154" s="3" t="s">
         <v>292</v>
       </c>
@@ -10538,7 +12624,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="155" spans="1:16" ht="15.75">
+    <row r="155" spans="1:28" ht="15.75">
       <c r="A155" s="3" t="s">
         <v>293</v>
       </c>
@@ -10585,7 +12671,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="156" spans="1:16" ht="15.75">
+    <row r="156" spans="1:28" ht="15.75">
       <c r="A156" s="3" t="s">
         <v>297</v>
       </c>
@@ -10632,7 +12718,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="157" spans="1:16" ht="30.75">
+    <row r="157" spans="1:28" ht="30.75">
       <c r="A157" s="5" t="s">
         <v>298</v>
       </c>
@@ -10679,7 +12765,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="158" spans="1:16" ht="15.75">
+    <row r="158" spans="1:28" ht="15.75">
       <c r="A158" s="3" t="s">
         <v>302</v>
       </c>
@@ -10704,7 +12790,7 @@
       </c>
       <c r="L158" s="8"/>
     </row>
-    <row r="159" spans="1:16" ht="15.75">
+    <row r="159" spans="1:28" ht="15.75">
       <c r="A159" s="3" t="s">
         <v>306</v>
       </c>
@@ -10729,7 +12815,7 @@
       </c>
       <c r="L159" s="8"/>
     </row>
-    <row r="160" spans="1:16" ht="15.75">
+    <row r="160" spans="1:28" ht="15.75">
       <c r="A160" s="3" t="s">
         <v>307</v>
       </c>
@@ -11205,7 +13291,7 @@
       </c>
       <c r="L176" s="8"/>
     </row>
-    <row r="177" spans="1:12" ht="15.75">
+    <row r="177" spans="1:20" ht="15.75">
       <c r="A177" s="3" t="s">
         <v>358</v>
       </c>
@@ -11233,7 +13319,7 @@
       </c>
       <c r="L177" s="8"/>
     </row>
-    <row r="178" spans="1:12" ht="15.75">
+    <row r="178" spans="1:20" ht="15.75">
       <c r="A178" s="3" t="s">
         <v>360</v>
       </c>
@@ -11261,7 +13347,7 @@
       </c>
       <c r="L178" s="8"/>
     </row>
-    <row r="179" spans="1:12" ht="15.75">
+    <row r="179" spans="1:20" ht="15.75">
       <c r="A179" s="3" t="s">
         <v>363</v>
       </c>
@@ -11289,7 +13375,7 @@
       </c>
       <c r="L179" s="8"/>
     </row>
-    <row r="180" spans="1:12" ht="15.75">
+    <row r="180" spans="1:20" ht="15.75">
       <c r="A180" s="3" t="s">
         <v>366</v>
       </c>
@@ -11317,7 +13403,7 @@
       </c>
       <c r="L180" s="8"/>
     </row>
-    <row r="181" spans="1:12" ht="15.75">
+    <row r="181" spans="1:20" ht="15.75">
       <c r="A181" s="3" t="s">
         <v>367</v>
       </c>
@@ -11345,7 +13431,7 @@
       </c>
       <c r="L181" s="8"/>
     </row>
-    <row r="182" spans="1:12" ht="15.75">
+    <row r="182" spans="1:20" ht="15.75">
       <c r="A182" s="3" t="s">
         <v>369</v>
       </c>
@@ -11373,7 +13459,7 @@
       </c>
       <c r="L182" s="8"/>
     </row>
-    <row r="183" spans="1:12" ht="15.75">
+    <row r="183" spans="1:20" ht="15.75">
       <c r="A183" s="3" t="s">
         <v>370</v>
       </c>
@@ -11400,8 +13486,20 @@
         <v>313</v>
       </c>
       <c r="L183" s="8"/>
-    </row>
-    <row r="184" spans="1:12" ht="15.75">
+      <c r="Q183" s="8" t="s">
+        <v>949</v>
+      </c>
+      <c r="R183" s="3" t="s">
+        <v>1078</v>
+      </c>
+      <c r="S183" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="T183" s="3" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="184" spans="1:20" ht="15.75">
       <c r="A184" s="3" t="s">
         <v>373</v>
       </c>
@@ -11428,8 +13526,20 @@
         <v>313</v>
       </c>
       <c r="L184" s="8"/>
-    </row>
-    <row r="185" spans="1:12" ht="15.75">
+      <c r="Q184" s="8" t="s">
+        <v>949</v>
+      </c>
+      <c r="R184" s="3" t="s">
+        <v>1078</v>
+      </c>
+      <c r="S184" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="T184" s="3" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="185" spans="1:20" ht="15.75">
       <c r="A185" s="3" t="s">
         <v>374</v>
       </c>
@@ -11456,8 +13566,20 @@
         <v>328</v>
       </c>
       <c r="L185" s="8"/>
-    </row>
-    <row r="186" spans="1:12" ht="15.75">
+      <c r="Q185" s="8" t="s">
+        <v>949</v>
+      </c>
+      <c r="R185" s="3" t="s">
+        <v>1078</v>
+      </c>
+      <c r="S185" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="T185" s="3" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="186" spans="1:20" ht="15.75">
       <c r="A186" s="3" t="s">
         <v>376</v>
       </c>
@@ -11484,8 +13606,20 @@
         <v>313</v>
       </c>
       <c r="L186" s="8"/>
-    </row>
-    <row r="187" spans="1:12" ht="15.75">
+      <c r="Q186" s="8" t="s">
+        <v>949</v>
+      </c>
+      <c r="R186" s="3" t="s">
+        <v>1078</v>
+      </c>
+      <c r="S186" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="T186" s="3" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="187" spans="1:20" ht="15.75">
       <c r="A187" s="3" t="s">
         <v>377</v>
       </c>
@@ -11512,8 +13646,20 @@
         <v>328</v>
       </c>
       <c r="L187" s="8"/>
-    </row>
-    <row r="188" spans="1:12" ht="15.75">
+      <c r="Q187" s="8" t="s">
+        <v>949</v>
+      </c>
+      <c r="R187" s="3" t="s">
+        <v>1077</v>
+      </c>
+      <c r="S187" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="T187" s="3" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="188" spans="1:20" ht="15.75">
       <c r="A188" s="3" t="s">
         <v>378</v>
       </c>
@@ -11540,8 +13686,20 @@
         <v>313</v>
       </c>
       <c r="L188" s="8"/>
-    </row>
-    <row r="189" spans="1:12" ht="15.75">
+      <c r="Q188" s="8" t="s">
+        <v>949</v>
+      </c>
+      <c r="R188" s="3" t="s">
+        <v>1077</v>
+      </c>
+      <c r="S188" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="T188" s="3" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="189" spans="1:20" ht="15.75">
       <c r="A189" s="3" t="s">
         <v>381</v>
       </c>
@@ -11569,7 +13727,7 @@
       </c>
       <c r="L189" s="8"/>
     </row>
-    <row r="190" spans="1:12" ht="15.75">
+    <row r="190" spans="1:20" ht="15.75">
       <c r="A190" s="3" t="s">
         <v>383</v>
       </c>
@@ -11597,7 +13755,7 @@
       </c>
       <c r="L190" s="8"/>
     </row>
-    <row r="191" spans="1:12" ht="15.75">
+    <row r="191" spans="1:20" ht="15.75">
       <c r="A191" s="3" t="s">
         <v>385</v>
       </c>
@@ -11625,7 +13783,7 @@
       </c>
       <c r="L191" s="8"/>
     </row>
-    <row r="192" spans="1:12" ht="15.75">
+    <row r="192" spans="1:20" ht="15.75">
       <c r="A192" s="3" t="s">
         <v>389</v>
       </c>
@@ -11653,7 +13811,7 @@
       </c>
       <c r="L192" s="8"/>
     </row>
-    <row r="193" spans="1:12" ht="15.75">
+    <row r="193" spans="1:20" ht="15.75">
       <c r="A193" s="3" t="s">
         <v>391</v>
       </c>
@@ -11681,7 +13839,7 @@
       </c>
       <c r="L193" s="8"/>
     </row>
-    <row r="194" spans="1:12" ht="15.75">
+    <row r="194" spans="1:20" ht="15.75">
       <c r="A194" s="3" t="s">
         <v>394</v>
       </c>
@@ -11709,7 +13867,7 @@
       </c>
       <c r="L194" s="8"/>
     </row>
-    <row r="195" spans="1:12" ht="15.75">
+    <row r="195" spans="1:20" ht="15.75">
       <c r="A195" s="3" t="s">
         <v>395</v>
       </c>
@@ -11737,7 +13895,7 @@
       </c>
       <c r="L195" s="8"/>
     </row>
-    <row r="196" spans="1:12" ht="15.75">
+    <row r="196" spans="1:20" ht="15.75">
       <c r="A196" s="3" t="s">
         <v>398</v>
       </c>
@@ -11765,7 +13923,7 @@
       </c>
       <c r="L196" s="8"/>
     </row>
-    <row r="197" spans="1:12" ht="15.75">
+    <row r="197" spans="1:20" ht="15.75">
       <c r="A197" s="3" t="s">
         <v>399</v>
       </c>
@@ -11793,7 +13951,7 @@
       </c>
       <c r="L197" s="8"/>
     </row>
-    <row r="198" spans="1:12" ht="15.75">
+    <row r="198" spans="1:20" ht="15.75">
       <c r="A198" s="3" t="s">
         <v>400</v>
       </c>
@@ -11821,7 +13979,7 @@
       </c>
       <c r="L198" s="8"/>
     </row>
-    <row r="199" spans="1:12" ht="15.75">
+    <row r="199" spans="1:20" ht="15.75">
       <c r="A199" s="3" t="s">
         <v>405</v>
       </c>
@@ -11849,7 +14007,7 @@
       </c>
       <c r="L199" s="8"/>
     </row>
-    <row r="200" spans="1:12" ht="15.75">
+    <row r="200" spans="1:20" ht="15.75">
       <c r="A200" s="3" t="s">
         <v>408</v>
       </c>
@@ -11877,7 +14035,7 @@
       </c>
       <c r="L200" s="8"/>
     </row>
-    <row r="201" spans="1:12" ht="15.75">
+    <row r="201" spans="1:20" ht="15.75">
       <c r="A201" s="3" t="s">
         <v>410</v>
       </c>
@@ -11905,7 +14063,7 @@
       </c>
       <c r="L201" s="8"/>
     </row>
-    <row r="202" spans="1:12" ht="15.75">
+    <row r="202" spans="1:20" ht="15.75">
       <c r="A202" s="3" t="s">
         <v>411</v>
       </c>
@@ -11933,7 +14091,7 @@
       </c>
       <c r="L202" s="8"/>
     </row>
-    <row r="203" spans="1:12" ht="15.75">
+    <row r="203" spans="1:20" ht="15.75">
       <c r="A203" s="3" t="s">
         <v>412</v>
       </c>
@@ -11961,7 +14119,7 @@
       </c>
       <c r="L203" s="8"/>
     </row>
-    <row r="204" spans="1:12" ht="15.75">
+    <row r="204" spans="1:20" ht="15.75">
       <c r="A204" s="3" t="s">
         <v>414</v>
       </c>
@@ -11989,7 +14147,7 @@
       </c>
       <c r="L204" s="8"/>
     </row>
-    <row r="205" spans="1:12" ht="15.75">
+    <row r="205" spans="1:20" ht="15.75">
       <c r="A205" s="3" t="s">
         <v>415</v>
       </c>
@@ -12017,7 +14175,7 @@
       </c>
       <c r="L205" s="8"/>
     </row>
-    <row r="206" spans="1:12" ht="15.75">
+    <row r="206" spans="1:20" ht="15.75">
       <c r="A206" s="3" t="s">
         <v>416</v>
       </c>
@@ -12045,7 +14203,7 @@
       </c>
       <c r="L206" s="8"/>
     </row>
-    <row r="207" spans="1:12" ht="15.75">
+    <row r="207" spans="1:20" ht="15.75">
       <c r="A207" s="3" t="s">
         <v>418</v>
       </c>
@@ -12072,8 +14230,20 @@
         <v>421</v>
       </c>
       <c r="L207" s="8"/>
-    </row>
-    <row r="208" spans="1:12" ht="15.75">
+      <c r="Q207" s="8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="R207" s="3" t="s">
+        <v>1069</v>
+      </c>
+      <c r="S207" s="3" t="s">
+        <v>1118</v>
+      </c>
+      <c r="T207" s="3" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="208" spans="1:20" ht="15.75">
       <c r="A208" s="3" t="s">
         <v>102</v>
       </c>
@@ -12100,8 +14270,20 @@
         <v>145</v>
       </c>
       <c r="L208" s="8"/>
-    </row>
-    <row r="209" spans="1:12" ht="15.75">
+      <c r="Q208" s="8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="R208" s="3" t="s">
+        <v>1069</v>
+      </c>
+      <c r="S208" s="3" t="s">
+        <v>1118</v>
+      </c>
+      <c r="T208" s="3" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="209" spans="1:20" ht="15.75">
       <c r="A209" s="3" t="s">
         <v>103</v>
       </c>
@@ -12128,8 +14310,20 @@
         <v>146</v>
       </c>
       <c r="L209" s="8"/>
-    </row>
-    <row r="210" spans="1:12" ht="15.75">
+      <c r="Q209" s="8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="R209" s="3" t="s">
+        <v>1069</v>
+      </c>
+      <c r="S209" s="3" t="s">
+        <v>1118</v>
+      </c>
+      <c r="T209" s="3" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="210" spans="1:20" ht="15.75">
       <c r="A210" s="3" t="s">
         <v>422</v>
       </c>
@@ -12156,8 +14350,20 @@
         <v>387</v>
       </c>
       <c r="L210" s="8"/>
-    </row>
-    <row r="211" spans="1:12" ht="15.75">
+      <c r="Q210" s="8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="R210" s="3" t="s">
+        <v>1069</v>
+      </c>
+      <c r="S210" s="3" t="s">
+        <v>1118</v>
+      </c>
+      <c r="T210" s="3" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="211" spans="1:20" ht="15.75">
       <c r="A211" s="3" t="s">
         <v>424</v>
       </c>
@@ -12184,8 +14390,20 @@
         <v>421</v>
       </c>
       <c r="L211" s="8"/>
-    </row>
-    <row r="212" spans="1:12" ht="15.75">
+      <c r="Q211" s="8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="R211" s="3" t="s">
+        <v>1060</v>
+      </c>
+      <c r="S211" s="3" t="s">
+        <v>1118</v>
+      </c>
+      <c r="T211" s="3" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="212" spans="1:20" ht="15.75">
       <c r="A212" s="3" t="s">
         <v>425</v>
       </c>
@@ -12212,8 +14430,20 @@
         <v>145</v>
       </c>
       <c r="L212" s="8"/>
-    </row>
-    <row r="213" spans="1:12" ht="15.75">
+      <c r="Q212" s="8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="R212" s="3" t="s">
+        <v>1060</v>
+      </c>
+      <c r="S212" s="3" t="s">
+        <v>1118</v>
+      </c>
+      <c r="T212" s="3" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="213" spans="1:20" ht="15.75">
       <c r="A213" s="3" t="s">
         <v>426</v>
       </c>
@@ -12240,8 +14470,20 @@
         <v>146</v>
       </c>
       <c r="L213" s="8"/>
-    </row>
-    <row r="214" spans="1:12" ht="15.75">
+      <c r="Q213" s="8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="R213" s="3" t="s">
+        <v>1060</v>
+      </c>
+      <c r="S213" s="3" t="s">
+        <v>1118</v>
+      </c>
+      <c r="T213" s="3" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="214" spans="1:20" ht="15.75">
       <c r="A214" s="3" t="s">
         <v>427</v>
       </c>
@@ -12268,8 +14510,20 @@
         <v>387</v>
       </c>
       <c r="L214" s="8"/>
-    </row>
-    <row r="215" spans="1:12" ht="15.75">
+      <c r="Q214" s="8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="R214" s="3" t="s">
+        <v>1060</v>
+      </c>
+      <c r="S214" s="3" t="s">
+        <v>1118</v>
+      </c>
+      <c r="T214" s="3" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="215" spans="1:20" ht="15.75">
       <c r="A215" s="3" t="s">
         <v>430</v>
       </c>
@@ -12296,8 +14550,20 @@
         <v>421</v>
       </c>
       <c r="L215" s="8"/>
-    </row>
-    <row r="216" spans="1:12" ht="15.75">
+      <c r="Q215" s="8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="R215" s="3" t="s">
+        <v>1060</v>
+      </c>
+      <c r="S215" s="3" t="s">
+        <v>1054</v>
+      </c>
+      <c r="T215" s="3" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="216" spans="1:20" ht="15.75">
       <c r="A216" s="3" t="s">
         <v>431</v>
       </c>
@@ -12324,8 +14590,20 @@
         <v>145</v>
       </c>
       <c r="L216" s="8"/>
-    </row>
-    <row r="217" spans="1:12" ht="15.75">
+      <c r="Q216" s="8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="R216" s="3" t="s">
+        <v>1060</v>
+      </c>
+      <c r="S216" s="3" t="s">
+        <v>1054</v>
+      </c>
+      <c r="T216" s="3" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="217" spans="1:20" ht="15.75">
       <c r="A217" s="3" t="s">
         <v>432</v>
       </c>
@@ -12352,8 +14630,20 @@
         <v>146</v>
       </c>
       <c r="L217" s="8"/>
-    </row>
-    <row r="218" spans="1:12" ht="15.75">
+      <c r="Q217" s="8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="R217" s="3" t="s">
+        <v>1060</v>
+      </c>
+      <c r="S217" s="3" t="s">
+        <v>1054</v>
+      </c>
+      <c r="T217" s="3" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="218" spans="1:20" ht="15.75">
       <c r="A218" s="3" t="s">
         <v>433</v>
       </c>
@@ -12380,8 +14670,20 @@
         <v>387</v>
       </c>
       <c r="L218" s="8"/>
-    </row>
-    <row r="219" spans="1:12" ht="15.75">
+      <c r="Q218" s="8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="R218" s="3" t="s">
+        <v>1060</v>
+      </c>
+      <c r="S218" s="3" t="s">
+        <v>1054</v>
+      </c>
+      <c r="T218" s="3" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="219" spans="1:20" ht="15.75">
       <c r="A219" s="3" t="s">
         <v>438</v>
       </c>
@@ -12409,7 +14711,7 @@
       </c>
       <c r="L219" s="8"/>
     </row>
-    <row r="220" spans="1:12" ht="15.75">
+    <row r="220" spans="1:20" ht="15.75">
       <c r="A220" s="3" t="s">
         <v>441</v>
       </c>
@@ -12437,7 +14739,7 @@
       </c>
       <c r="L220" s="8"/>
     </row>
-    <row r="221" spans="1:12" ht="15.75">
+    <row r="221" spans="1:20" ht="15.75">
       <c r="A221" s="3" t="s">
         <v>445</v>
       </c>
@@ -12465,7 +14767,7 @@
       </c>
       <c r="L221" s="8"/>
     </row>
-    <row r="222" spans="1:12" ht="15.75">
+    <row r="222" spans="1:20" ht="15.75">
       <c r="A222" s="3" t="s">
         <v>447</v>
       </c>
@@ -12493,7 +14795,7 @@
       </c>
       <c r="L222" s="8"/>
     </row>
-    <row r="223" spans="1:12" ht="15.75">
+    <row r="223" spans="1:20" ht="15.75">
       <c r="A223" s="3" t="s">
         <v>451</v>
       </c>
@@ -12521,7 +14823,7 @@
       </c>
       <c r="L223" s="8"/>
     </row>
-    <row r="224" spans="1:12" ht="15.75">
+    <row r="224" spans="1:20" ht="15.75">
       <c r="A224" s="3" t="s">
         <v>455</v>
       </c>
@@ -17032,7 +19334,7 @@
       </c>
       <c r="L384" s="8"/>
     </row>
-    <row r="385" spans="1:12" ht="15.75">
+    <row r="385" spans="1:20" ht="15.75">
       <c r="A385" s="3" t="s">
         <v>800</v>
       </c>
@@ -17060,7 +19362,7 @@
       </c>
       <c r="L385" s="8"/>
     </row>
-    <row r="386" spans="1:12" ht="15.75">
+    <row r="386" spans="1:20" ht="15.75">
       <c r="A386" s="3" t="s">
         <v>802</v>
       </c>
@@ -17088,7 +19390,7 @@
       </c>
       <c r="L386" s="8"/>
     </row>
-    <row r="387" spans="1:12" ht="15.75">
+    <row r="387" spans="1:20" ht="15.75">
       <c r="A387" s="3" t="s">
         <v>805</v>
       </c>
@@ -17116,7 +19418,7 @@
       </c>
       <c r="L387" s="8"/>
     </row>
-    <row r="388" spans="1:12" ht="15.75">
+    <row r="388" spans="1:20" ht="15.75">
       <c r="A388" s="3" t="s">
         <v>808</v>
       </c>
@@ -17144,7 +19446,7 @@
       </c>
       <c r="L388" s="8"/>
     </row>
-    <row r="389" spans="1:12" ht="15.75">
+    <row r="389" spans="1:20" ht="15.75">
       <c r="A389" s="3" t="s">
         <v>809</v>
       </c>
@@ -17172,7 +19474,7 @@
       </c>
       <c r="L389" s="8"/>
     </row>
-    <row r="390" spans="1:12" ht="15.75">
+    <row r="390" spans="1:20" ht="15.75">
       <c r="A390" s="3" t="s">
         <v>810</v>
       </c>
@@ -17200,7 +19502,7 @@
       </c>
       <c r="L390" s="8"/>
     </row>
-    <row r="391" spans="1:12" ht="15.75">
+    <row r="391" spans="1:20" ht="15.75">
       <c r="A391" s="3" t="s">
         <v>812</v>
       </c>
@@ -17228,7 +19530,7 @@
       </c>
       <c r="L391" s="8"/>
     </row>
-    <row r="392" spans="1:12" ht="15.75">
+    <row r="392" spans="1:20" ht="15.75">
       <c r="A392" s="3" t="s">
         <v>815</v>
       </c>
@@ -17256,7 +19558,7 @@
       </c>
       <c r="L392" s="8"/>
     </row>
-    <row r="393" spans="1:12" ht="15.75">
+    <row r="393" spans="1:20" ht="15.75">
       <c r="A393" s="3" t="s">
         <v>191</v>
       </c>
@@ -17284,7 +19586,7 @@
       </c>
       <c r="L393" s="8"/>
     </row>
-    <row r="394" spans="1:12" ht="15.75">
+    <row r="394" spans="1:20" ht="15.75">
       <c r="A394" s="3" t="s">
         <v>817</v>
       </c>
@@ -17312,7 +19614,7 @@
       </c>
       <c r="L394" s="8"/>
     </row>
-    <row r="395" spans="1:12" ht="15.75">
+    <row r="395" spans="1:20" ht="15.75">
       <c r="A395" s="3" t="s">
         <v>978</v>
       </c>
@@ -17339,8 +19641,20 @@
         <v>764</v>
       </c>
       <c r="L395" s="8"/>
-    </row>
-    <row r="396" spans="1:12" ht="15.75">
+      <c r="Q395" s="8" t="s">
+        <v>1054</v>
+      </c>
+      <c r="R395" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="S395" s="3" t="s">
+        <v>1076</v>
+      </c>
+      <c r="T395" s="3" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="396" spans="1:20" ht="15.75">
       <c r="A396" s="3" t="s">
         <v>820</v>
       </c>
@@ -17368,7 +19682,7 @@
       </c>
       <c r="L396" s="8"/>
     </row>
-    <row r="397" spans="1:12" ht="15.75">
+    <row r="397" spans="1:20" ht="15.75">
       <c r="A397" s="3" t="s">
         <v>979</v>
       </c>
@@ -17395,8 +19709,20 @@
         <v>764</v>
       </c>
       <c r="L397" s="8"/>
-    </row>
-    <row r="398" spans="1:12" ht="15.75">
+      <c r="Q397" s="8" t="s">
+        <v>1054</v>
+      </c>
+      <c r="R397" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="S397" s="10" t="s">
+        <v>1111</v>
+      </c>
+      <c r="T397" s="10" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="398" spans="1:20" ht="15.75">
       <c r="A398" s="3" t="s">
         <v>823</v>
       </c>
@@ -17423,8 +19749,20 @@
         <v>744</v>
       </c>
       <c r="L398" s="8"/>
-    </row>
-    <row r="399" spans="1:12" ht="15.75">
+      <c r="Q398" s="8" t="s">
+        <v>949</v>
+      </c>
+      <c r="R398" s="3" t="s">
+        <v>1067</v>
+      </c>
+      <c r="S398" s="3" t="s">
+        <v>1103</v>
+      </c>
+      <c r="T398" s="3" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="399" spans="1:20" ht="15.75">
       <c r="A399" s="3" t="s">
         <v>825</v>
       </c>
@@ -17452,7 +19790,7 @@
       </c>
       <c r="L399" s="8"/>
     </row>
-    <row r="400" spans="1:12" ht="15.75">
+    <row r="400" spans="1:20" ht="15.75">
       <c r="A400" s="3" t="s">
         <v>980</v>
       </c>
@@ -17479,8 +19817,20 @@
         <v>764</v>
       </c>
       <c r="L400" s="8"/>
-    </row>
-    <row r="401" spans="1:12" ht="15.75">
+      <c r="Q400" s="8" t="s">
+        <v>1054</v>
+      </c>
+      <c r="R400" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="S400" s="3" t="s">
+        <v>1058</v>
+      </c>
+      <c r="T400" s="3" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="401" spans="1:20" ht="15.75">
       <c r="A401" s="3" t="s">
         <v>828</v>
       </c>
@@ -17508,7 +19858,7 @@
       </c>
       <c r="L401" s="8"/>
     </row>
-    <row r="402" spans="1:12" ht="15.75">
+    <row r="402" spans="1:20" ht="15.75">
       <c r="A402" s="3" t="s">
         <v>830</v>
       </c>
@@ -17538,8 +19888,20 @@
         <v>744</v>
       </c>
       <c r="L402" s="8"/>
-    </row>
-    <row r="403" spans="1:12" ht="15.75">
+      <c r="Q402" s="8" t="s">
+        <v>949</v>
+      </c>
+      <c r="R402" s="3" t="s">
+        <v>1063</v>
+      </c>
+      <c r="S402" s="3" t="s">
+        <v>1104</v>
+      </c>
+      <c r="T402" s="3" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="403" spans="1:20" ht="15.75">
       <c r="A403" s="3" t="s">
         <v>832</v>
       </c>
@@ -17566,8 +19928,20 @@
         <v>744</v>
       </c>
       <c r="L403" s="8"/>
-    </row>
-    <row r="404" spans="1:12" ht="15.75">
+      <c r="Q403" s="8" t="s">
+        <v>949</v>
+      </c>
+      <c r="R403" s="3" t="s">
+        <v>1063</v>
+      </c>
+      <c r="S403" s="3" t="s">
+        <v>1104</v>
+      </c>
+      <c r="T403" s="3" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="404" spans="1:20" ht="15.75">
       <c r="A404" s="3" t="s">
         <v>833</v>
       </c>
@@ -17598,7 +19972,7 @@
       </c>
       <c r="L404" s="8"/>
     </row>
-    <row r="405" spans="1:12" ht="15.75">
+    <row r="405" spans="1:20" ht="15.75">
       <c r="A405" s="3" t="s">
         <v>835</v>
       </c>
@@ -17625,8 +19999,10 @@
         <v>759</v>
       </c>
       <c r="L405" s="8"/>
-    </row>
-    <row r="406" spans="1:12" ht="15.75">
+      <c r="P405" s="16"/>
+      <c r="Q405" s="6"/>
+    </row>
+    <row r="406" spans="1:20" ht="15.75">
       <c r="A406" s="3" t="s">
         <v>836</v>
       </c>
@@ -17656,8 +20032,21 @@
         <v>764</v>
       </c>
       <c r="L406" s="8"/>
-    </row>
-    <row r="407" spans="1:12" ht="15.75">
+      <c r="P406" s="16"/>
+      <c r="Q406" s="3">
+        <v>3</v>
+      </c>
+      <c r="R406" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="S406" s="10" t="s">
+        <v>949</v>
+      </c>
+      <c r="T406" s="10" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="407" spans="1:20" ht="15.75">
       <c r="A407" s="3" t="s">
         <v>838</v>
       </c>
@@ -17684,8 +20073,21 @@
         <v>764</v>
       </c>
       <c r="L407" s="8"/>
-    </row>
-    <row r="408" spans="1:12" ht="15.75">
+      <c r="P407" s="16"/>
+      <c r="Q407" s="6" t="s">
+        <v>1054</v>
+      </c>
+      <c r="R407" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="S407" s="3" t="s">
+        <v>1062</v>
+      </c>
+      <c r="T407" s="3" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="408" spans="1:20" ht="15.75">
       <c r="A408" s="3" t="s">
         <v>839</v>
       </c>
@@ -17712,8 +20114,10 @@
         <v>795</v>
       </c>
       <c r="L408" s="8"/>
-    </row>
-    <row r="409" spans="1:12" ht="15.75">
+      <c r="P408" s="16"/>
+      <c r="Q408" s="6"/>
+    </row>
+    <row r="409" spans="1:20" ht="15.75">
       <c r="A409" s="3" t="s">
         <v>840</v>
       </c>
@@ -17740,8 +20144,21 @@
         <v>744</v>
       </c>
       <c r="L409" s="8"/>
-    </row>
-    <row r="410" spans="1:12" ht="15.75">
+      <c r="P409" s="16"/>
+      <c r="Q409" s="6" t="s">
+        <v>949</v>
+      </c>
+      <c r="R409" s="3" t="s">
+        <v>1056</v>
+      </c>
+      <c r="S409" s="3" t="s">
+        <v>1105</v>
+      </c>
+      <c r="T409" s="3" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="410" spans="1:20" ht="15.75">
       <c r="A410" s="3" t="s">
         <v>841</v>
       </c>
@@ -17768,8 +20185,10 @@
         <v>759</v>
       </c>
       <c r="L410" s="8"/>
-    </row>
-    <row r="411" spans="1:12" ht="15.75">
+      <c r="P410" s="16"/>
+      <c r="Q410" s="6"/>
+    </row>
+    <row r="411" spans="1:20" ht="15.75">
       <c r="A411" s="3" t="s">
         <v>842</v>
       </c>
@@ -17796,8 +20215,21 @@
         <v>764</v>
       </c>
       <c r="L411" s="8"/>
-    </row>
-    <row r="412" spans="1:12" ht="15.75">
+      <c r="P411" s="16"/>
+      <c r="Q411" s="3">
+        <v>3</v>
+      </c>
+      <c r="R411" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="S411" s="10" t="s">
+        <v>949</v>
+      </c>
+      <c r="T411" s="10" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="412" spans="1:20" ht="15.75">
       <c r="A412" s="3" t="s">
         <v>843</v>
       </c>
@@ -17824,8 +20256,10 @@
         <v>795</v>
       </c>
       <c r="L412" s="8"/>
-    </row>
-    <row r="413" spans="1:12" ht="15.75">
+      <c r="P412" s="16"/>
+      <c r="Q412" s="6"/>
+    </row>
+    <row r="413" spans="1:20" ht="15.75">
       <c r="A413" s="3" t="s">
         <v>844</v>
       </c>
@@ -17852,8 +20286,21 @@
         <v>744</v>
       </c>
       <c r="L413" s="8"/>
-    </row>
-    <row r="414" spans="1:12" ht="15.75">
+      <c r="P413" s="16"/>
+      <c r="Q413" s="6" t="s">
+        <v>949</v>
+      </c>
+      <c r="R413" s="3" t="s">
+        <v>1054</v>
+      </c>
+      <c r="S413" s="3" t="s">
+        <v>1103</v>
+      </c>
+      <c r="T413" s="3" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="414" spans="1:20" ht="15.75">
       <c r="A414" s="3" t="s">
         <v>845</v>
       </c>
@@ -17880,8 +20327,10 @@
         <v>759</v>
       </c>
       <c r="L414" s="8"/>
-    </row>
-    <row r="415" spans="1:12" ht="15.75">
+      <c r="P414" s="16"/>
+      <c r="Q414" s="6"/>
+    </row>
+    <row r="415" spans="1:20" ht="15.75">
       <c r="A415" s="3" t="s">
         <v>846</v>
       </c>
@@ -17908,8 +20357,21 @@
         <v>764</v>
       </c>
       <c r="L415" s="8"/>
-    </row>
-    <row r="416" spans="1:12" ht="15.75">
+      <c r="P415" s="16"/>
+      <c r="Q415" s="3">
+        <v>3</v>
+      </c>
+      <c r="R415" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="S415" s="10" t="s">
+        <v>949</v>
+      </c>
+      <c r="T415" s="10" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="416" spans="1:20" ht="15.75">
       <c r="A416" s="3" t="s">
         <v>847</v>
       </c>
@@ -17936,8 +20398,10 @@
         <v>795</v>
       </c>
       <c r="L416" s="8"/>
-    </row>
-    <row r="417" spans="1:16" ht="15.75">
+      <c r="P416" s="16"/>
+      <c r="Q416" s="6"/>
+    </row>
+    <row r="417" spans="1:32" ht="15.75">
       <c r="A417" s="3" t="s">
         <v>848</v>
       </c>
@@ -17964,8 +20428,21 @@
         <v>744</v>
       </c>
       <c r="L417" s="8"/>
-    </row>
-    <row r="418" spans="1:16" ht="15.75">
+      <c r="P417" s="16"/>
+      <c r="Q417" s="6" t="s">
+        <v>949</v>
+      </c>
+      <c r="R417" s="3" t="s">
+        <v>1054</v>
+      </c>
+      <c r="S417" s="3" t="s">
+        <v>1106</v>
+      </c>
+      <c r="T417" s="3" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="418" spans="1:32" ht="15.75">
       <c r="A418" s="3" t="s">
         <v>849</v>
       </c>
@@ -17992,8 +20469,10 @@
         <v>759</v>
       </c>
       <c r="L418" s="8"/>
-    </row>
-    <row r="419" spans="1:16" ht="15.75">
+      <c r="P418" s="16"/>
+      <c r="Q418" s="6"/>
+    </row>
+    <row r="419" spans="1:32" ht="15.75">
       <c r="A419" s="3" t="s">
         <v>850</v>
       </c>
@@ -18020,8 +20499,21 @@
         <v>764</v>
       </c>
       <c r="L419" s="8"/>
-    </row>
-    <row r="420" spans="1:16" ht="15.75">
+      <c r="P419" s="16"/>
+      <c r="Q419" s="3">
+        <v>3</v>
+      </c>
+      <c r="R419" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="S419" s="10" t="s">
+        <v>949</v>
+      </c>
+      <c r="T419" s="10" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="420" spans="1:32" ht="15.75">
       <c r="A420" s="3" t="s">
         <v>851</v>
       </c>
@@ -18048,8 +20540,10 @@
         <v>795</v>
       </c>
       <c r="L420" s="8"/>
-    </row>
-    <row r="421" spans="1:16" ht="15.75">
+      <c r="P420" s="16"/>
+      <c r="Q420" s="6"/>
+    </row>
+    <row r="421" spans="1:32" ht="15.75">
       <c r="A421" s="3" t="s">
         <v>852</v>
       </c>
@@ -18076,8 +20570,21 @@
         <v>744</v>
       </c>
       <c r="L421" s="8"/>
-    </row>
-    <row r="422" spans="1:16" ht="15.75">
+      <c r="P421" s="16"/>
+      <c r="Q421" s="6" t="s">
+        <v>949</v>
+      </c>
+      <c r="R421" s="3" t="s">
+        <v>1060</v>
+      </c>
+      <c r="S421" s="3" t="s">
+        <v>1106</v>
+      </c>
+      <c r="T421" s="3" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="422" spans="1:32" ht="15.75">
       <c r="A422" s="3" t="s">
         <v>853</v>
       </c>
@@ -18104,8 +20611,10 @@
         <v>759</v>
       </c>
       <c r="L422" s="8"/>
-    </row>
-    <row r="423" spans="1:16" ht="15.75">
+      <c r="P422" s="16"/>
+      <c r="Q422" s="6"/>
+    </row>
+    <row r="423" spans="1:32" ht="15.75">
       <c r="A423" s="3" t="s">
         <v>854</v>
       </c>
@@ -18132,8 +20641,21 @@
         <v>764</v>
       </c>
       <c r="L423" s="8"/>
-    </row>
-    <row r="424" spans="1:16" ht="15.75">
+      <c r="P423" s="16"/>
+      <c r="Q423" s="3">
+        <v>3</v>
+      </c>
+      <c r="R423" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="S423" s="10" t="s">
+        <v>949</v>
+      </c>
+      <c r="T423" s="10" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="424" spans="1:32" ht="15.75">
       <c r="A424" s="3" t="s">
         <v>898</v>
       </c>
@@ -18176,11 +20698,47 @@
       <c r="O424" s="3" t="s">
         <v>895</v>
       </c>
-      <c r="P424" s="3" t="s">
+      <c r="P424" s="16" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="425" spans="1:16" ht="15.75">
+      <c r="Q424" s="6" t="s">
+        <v>948</v>
+      </c>
+      <c r="R424" s="3" t="s">
+        <v>1048</v>
+      </c>
+      <c r="S424" s="6" t="s">
+        <v>1049</v>
+      </c>
+      <c r="T424" s="3" t="s">
+        <v>855</v>
+      </c>
+      <c r="W424" s="10" t="s">
+        <v>949</v>
+      </c>
+      <c r="X424" s="10" t="s">
+        <v>1074</v>
+      </c>
+      <c r="Y424" s="10" t="s">
+        <v>1064</v>
+      </c>
+      <c r="Z424" s="3" t="s">
+        <v>855</v>
+      </c>
+      <c r="AC424" s="3" t="s">
+        <v>1054</v>
+      </c>
+      <c r="AD424" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="AE424" s="3">
+        <v>63</v>
+      </c>
+      <c r="AF424" s="3" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="425" spans="1:32" ht="15.75">
       <c r="A425" s="3" t="s">
         <v>950</v>
       </c>
@@ -18226,8 +20784,44 @@
       <c r="P425" s="3" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="426" spans="1:16" ht="15.75">
+      <c r="Q425" s="8" t="s">
+        <v>948</v>
+      </c>
+      <c r="R425" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="S425" s="3" t="s">
+        <v>1058</v>
+      </c>
+      <c r="T425" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="W425" s="8" t="s">
+        <v>949</v>
+      </c>
+      <c r="X425" s="3" t="s">
+        <v>1102</v>
+      </c>
+      <c r="Y425" s="3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="Z425" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="AC425" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD425" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="AE425" s="10" t="s">
+        <v>949</v>
+      </c>
+      <c r="AF425" s="10" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="426" spans="1:32" ht="15.75">
       <c r="A426" s="3" t="s">
         <v>859</v>
       </c>
@@ -18255,7 +20849,7 @@
       </c>
       <c r="L426" s="8"/>
     </row>
-    <row r="427" spans="1:16" ht="15.75">
+    <row r="427" spans="1:32" ht="15.75">
       <c r="A427" s="3" t="s">
         <v>861</v>
       </c>
@@ -18283,7 +20877,7 @@
       </c>
       <c r="L427" s="8"/>
     </row>
-    <row r="428" spans="1:16" ht="15.75">
+    <row r="428" spans="1:32" ht="15.75">
       <c r="A428" s="3" t="s">
         <v>863</v>
       </c>
@@ -18311,7 +20905,7 @@
       </c>
       <c r="L428" s="8"/>
     </row>
-    <row r="429" spans="1:16" ht="15.75">
+    <row r="429" spans="1:32" ht="15.75">
       <c r="A429" s="3" t="s">
         <v>866</v>
       </c>
@@ -18339,7 +20933,7 @@
       </c>
       <c r="L429" s="8"/>
     </row>
-    <row r="430" spans="1:16" ht="15.75">
+    <row r="430" spans="1:32" ht="15.75">
       <c r="A430" s="3" t="s">
         <v>869</v>
       </c>
@@ -18367,7 +20961,7 @@
       </c>
       <c r="L430" s="8"/>
     </row>
-    <row r="431" spans="1:16" ht="15.75">
+    <row r="431" spans="1:32" ht="15.75">
       <c r="A431" s="3" t="s">
         <v>872</v>
       </c>
@@ -18395,7 +20989,7 @@
       </c>
       <c r="L431" s="8"/>
     </row>
-    <row r="432" spans="1:16" ht="15.75">
+    <row r="432" spans="1:32" ht="15.75">
       <c r="A432" s="3" t="s">
         <v>157</v>
       </c>
@@ -18421,8 +21015,20 @@
         <v>160</v>
       </c>
       <c r="L432" s="8"/>
-    </row>
-    <row r="433" spans="1:12" ht="15.75">
+      <c r="Q432" s="8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="R432" s="3" t="s">
+        <v>1069</v>
+      </c>
+      <c r="S432" s="3" t="s">
+        <v>949</v>
+      </c>
+      <c r="T432" s="3" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="433" spans="1:20" ht="15.75">
       <c r="A433" s="3" t="s">
         <v>158</v>
       </c>
@@ -18448,8 +21054,20 @@
         <v>161</v>
       </c>
       <c r="L433" s="8"/>
-    </row>
-    <row r="434" spans="1:12" ht="15.75">
+      <c r="Q433" s="8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="R433" s="3" t="s">
+        <v>1069</v>
+      </c>
+      <c r="S433" s="3" t="s">
+        <v>949</v>
+      </c>
+      <c r="T433" s="3" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="434" spans="1:20" ht="15.75">
       <c r="A434" s="3" t="s">
         <v>159</v>
       </c>
@@ -18475,8 +21093,20 @@
         <v>409</v>
       </c>
       <c r="L434" s="8"/>
-    </row>
-    <row r="435" spans="1:12" ht="15.75">
+      <c r="Q434" s="8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="R434" s="3" t="s">
+        <v>1069</v>
+      </c>
+      <c r="S434" s="3" t="s">
+        <v>949</v>
+      </c>
+      <c r="T434" s="3" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="435" spans="1:20" ht="15.75">
       <c r="A435" s="3" t="s">
         <v>919</v>
       </c>
@@ -18502,8 +21132,20 @@
         <v>462</v>
       </c>
       <c r="L435" s="8"/>
-    </row>
-    <row r="436" spans="1:12" ht="15.75">
+      <c r="Q435" s="8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="R435" s="3" t="s">
+        <v>1063</v>
+      </c>
+      <c r="S435" s="3" t="s">
+        <v>1115</v>
+      </c>
+      <c r="T435" s="3" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="436" spans="1:20" ht="15.75">
       <c r="A436" s="3" t="s">
         <v>166</v>
       </c>
@@ -18529,8 +21171,20 @@
         <v>160</v>
       </c>
       <c r="L436" s="8"/>
-    </row>
-    <row r="437" spans="1:12" ht="15.75">
+      <c r="Q436" s="8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="R436" s="3" t="s">
+        <v>1063</v>
+      </c>
+      <c r="S436" s="3" t="s">
+        <v>1115</v>
+      </c>
+      <c r="T436" s="3" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="437" spans="1:20" ht="15.75">
       <c r="A437" s="3" t="s">
         <v>167</v>
       </c>
@@ -18556,8 +21210,20 @@
         <v>161</v>
       </c>
       <c r="L437" s="8"/>
-    </row>
-    <row r="438" spans="1:12" ht="15.75">
+      <c r="Q437" s="8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="R437" s="3" t="s">
+        <v>1063</v>
+      </c>
+      <c r="S437" s="3" t="s">
+        <v>1115</v>
+      </c>
+      <c r="T437" s="3" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="438" spans="1:20" ht="15.75">
       <c r="A438" s="3" t="s">
         <v>168</v>
       </c>
@@ -18583,8 +21249,20 @@
         <v>409</v>
       </c>
       <c r="L438" s="8"/>
-    </row>
-    <row r="439" spans="1:12" ht="15.75">
+      <c r="Q438" s="8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="R438" s="3" t="s">
+        <v>1063</v>
+      </c>
+      <c r="S438" s="3" t="s">
+        <v>1115</v>
+      </c>
+      <c r="T438" s="3" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="439" spans="1:20" ht="15.75">
       <c r="A439" s="3" t="s">
         <v>924</v>
       </c>
@@ -18610,8 +21288,20 @@
         <v>462</v>
       </c>
       <c r="L439" s="8"/>
-    </row>
-    <row r="440" spans="1:12" ht="15.75">
+      <c r="Q439" s="8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="R439" s="3" t="s">
+        <v>1059</v>
+      </c>
+      <c r="S439" s="3" t="s">
+        <v>1116</v>
+      </c>
+      <c r="T439" s="3" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="440" spans="1:20" ht="15.75">
       <c r="A440" s="3" t="s">
         <v>172</v>
       </c>
@@ -18637,8 +21327,20 @@
         <v>160</v>
       </c>
       <c r="L440" s="8"/>
-    </row>
-    <row r="441" spans="1:12" ht="15.75">
+      <c r="Q440" s="8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="R440" s="3" t="s">
+        <v>1059</v>
+      </c>
+      <c r="S440" s="3" t="s">
+        <v>1116</v>
+      </c>
+      <c r="T440" s="3" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="441" spans="1:20" ht="15.75">
       <c r="A441" s="3" t="s">
         <v>173</v>
       </c>
@@ -18664,8 +21366,20 @@
         <v>161</v>
       </c>
       <c r="L441" s="8"/>
-    </row>
-    <row r="442" spans="1:12" ht="15.75">
+      <c r="Q441" s="8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="R441" s="3" t="s">
+        <v>1059</v>
+      </c>
+      <c r="S441" s="3" t="s">
+        <v>1116</v>
+      </c>
+      <c r="T441" s="3" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="442" spans="1:20" ht="15.75">
       <c r="A442" s="3" t="s">
         <v>174</v>
       </c>
@@ -18691,8 +21405,20 @@
         <v>409</v>
       </c>
       <c r="L442" s="8"/>
-    </row>
-    <row r="443" spans="1:12" ht="15.75">
+      <c r="Q442" s="8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="R442" s="3" t="s">
+        <v>1059</v>
+      </c>
+      <c r="S442" s="3" t="s">
+        <v>1116</v>
+      </c>
+      <c r="T442" s="3" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="443" spans="1:20" ht="15.75">
       <c r="A443" s="3" t="s">
         <v>929</v>
       </c>
@@ -18718,8 +21444,20 @@
         <v>462</v>
       </c>
       <c r="L443" s="8"/>
-    </row>
-    <row r="444" spans="1:12" ht="15.75">
+      <c r="Q443" s="8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="R443" s="3" t="s">
+        <v>1054</v>
+      </c>
+      <c r="S443" s="3" t="s">
+        <v>1116</v>
+      </c>
+      <c r="T443" s="3" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="444" spans="1:20" ht="15.75">
       <c r="A444" s="3" t="s">
         <v>176</v>
       </c>
@@ -18745,8 +21483,20 @@
         <v>160</v>
       </c>
       <c r="L444" s="8"/>
-    </row>
-    <row r="445" spans="1:12" ht="15.75">
+      <c r="Q444" s="8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="R444" s="3" t="s">
+        <v>1054</v>
+      </c>
+      <c r="S444" s="3" t="s">
+        <v>1116</v>
+      </c>
+      <c r="T444" s="3" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="445" spans="1:20" ht="15.75">
       <c r="A445" s="3" t="s">
         <v>177</v>
       </c>
@@ -18772,8 +21522,20 @@
         <v>161</v>
       </c>
       <c r="L445" s="8"/>
-    </row>
-    <row r="446" spans="1:12" ht="15.75">
+      <c r="Q445" s="8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="R445" s="3" t="s">
+        <v>1054</v>
+      </c>
+      <c r="S445" s="3" t="s">
+        <v>1116</v>
+      </c>
+      <c r="T445" s="3" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="446" spans="1:20" ht="15.75">
       <c r="A446" s="3" t="s">
         <v>178</v>
       </c>
@@ -18799,8 +21561,20 @@
         <v>409</v>
       </c>
       <c r="L446" s="8"/>
-    </row>
-    <row r="447" spans="1:12" ht="15.75">
+      <c r="Q446" s="8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="R446" s="3" t="s">
+        <v>1054</v>
+      </c>
+      <c r="S446" s="3" t="s">
+        <v>1116</v>
+      </c>
+      <c r="T446" s="3" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="447" spans="1:20" ht="15.75">
       <c r="A447" s="3" t="s">
         <v>934</v>
       </c>
@@ -18826,8 +21600,20 @@
         <v>462</v>
       </c>
       <c r="L447" s="8"/>
-    </row>
-    <row r="448" spans="1:12" ht="15.75">
+      <c r="Q447" s="8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="R447" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="S447" s="3" t="s">
+        <v>1117</v>
+      </c>
+      <c r="T447" s="3" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="448" spans="1:20" ht="15.75">
       <c r="A448" s="3" t="s">
         <v>180</v>
       </c>
@@ -18853,8 +21639,20 @@
         <v>160</v>
       </c>
       <c r="L448" s="8"/>
-    </row>
-    <row r="449" spans="1:12" ht="15.75">
+      <c r="Q448" s="8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="R448" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="S448" s="3" t="s">
+        <v>1117</v>
+      </c>
+      <c r="T448" s="3" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="449" spans="1:20" ht="15.75">
       <c r="A449" s="3" t="s">
         <v>181</v>
       </c>
@@ -18880,8 +21678,20 @@
         <v>161</v>
       </c>
       <c r="L449" s="8"/>
-    </row>
-    <row r="450" spans="1:12" ht="15.75">
+      <c r="Q449" s="8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="R449" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="S449" s="3" t="s">
+        <v>1117</v>
+      </c>
+      <c r="T449" s="3" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="450" spans="1:20" ht="15.75">
       <c r="A450" s="3" t="s">
         <v>182</v>
       </c>
@@ -18907,8 +21717,20 @@
         <v>409</v>
       </c>
       <c r="L450" s="8"/>
-    </row>
-    <row r="451" spans="1:12" ht="15.75">
+      <c r="Q450" s="8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="R450" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="S450" s="3" t="s">
+        <v>1117</v>
+      </c>
+      <c r="T450" s="3" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="451" spans="1:20" ht="15.75">
       <c r="A451" s="3" t="s">
         <v>939</v>
       </c>
@@ -18934,8 +21756,20 @@
         <v>462</v>
       </c>
       <c r="L451" s="8"/>
-    </row>
-    <row r="452" spans="1:12" ht="15.75">
+      <c r="Q451" s="8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="R451" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="S451" s="3" t="s">
+        <v>1117</v>
+      </c>
+      <c r="T451" s="3" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="452" spans="1:20" ht="15.75">
       <c r="A452" s="3" t="s">
         <v>184</v>
       </c>
@@ -18961,8 +21795,20 @@
         <v>160</v>
       </c>
       <c r="L452" s="8"/>
-    </row>
-    <row r="453" spans="1:12" ht="15.75">
+      <c r="Q452" s="8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="R452" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="S452" s="3" t="s">
+        <v>1117</v>
+      </c>
+      <c r="T452" s="3" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="453" spans="1:20" ht="15.75">
       <c r="A453" s="3" t="s">
         <v>185</v>
       </c>
@@ -18988,8 +21834,20 @@
         <v>161</v>
       </c>
       <c r="L453" s="8"/>
-    </row>
-    <row r="454" spans="1:12" ht="15.75">
+      <c r="Q453" s="8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="R453" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="S453" s="3" t="s">
+        <v>1117</v>
+      </c>
+      <c r="T453" s="3" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="454" spans="1:20" ht="15.75">
       <c r="A454" s="3" t="s">
         <v>186</v>
       </c>
@@ -19015,6 +21873,18 @@
         <v>409</v>
       </c>
       <c r="L454" s="8"/>
+      <c r="Q454" s="8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="R454" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="S454" s="3" t="s">
+        <v>1117</v>
+      </c>
+      <c r="T454" s="3" t="s">
+        <v>871</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
